--- a/vocabulaire_allemand_traduit_depuis_allemand.xlsx
+++ b/vocabulaire_allemand_traduit_depuis_allemand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac3e3e535f2b81b3/Documents/github/jeuVocabulaireDeutsch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="507" documentId="11_7DC99D8A115E9E0F62355476585DCE3A874389B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76033EA1-8A4C-4BEC-A7F7-243FED4F55FF}"/>
+  <xr:revisionPtr revIDLastSave="509" documentId="11_7DC99D8A115E9E0F62355476585DCE3A874389B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0230DD2-5CE0-4C6B-B55D-81D99AEB5AC2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="3439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="3440">
   <si>
     <t>pluriel</t>
   </si>
@@ -9857,9 +9857,6 @@
     <t>l'examen</t>
   </si>
   <si>
-    <t>l' cours magistral</t>
-  </si>
-  <si>
     <t>l'étudiant</t>
   </si>
   <si>
@@ -10353,6 +10350,12 @@
   </si>
   <si>
     <t>to leave</t>
+  </si>
+  <si>
+    <t>le jardin</t>
+  </si>
+  <si>
+    <t>le cours magistral</t>
   </si>
 </sst>
 </file>
@@ -10431,6 +10434,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10721,8 +10728,8 @@
   <dimension ref="A1:G984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A538" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D570" sqref="D570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10742,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2868</v>
@@ -10762,7 +10769,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="b">
-        <f>COUNTIF(A:A,A2)&gt;1</f>
+        <f t="shared" ref="G2:G65" si="0">COUNTIF(A:A,A2)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -10780,7 +10787,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="b">
-        <f>COUNTIF(A:A,A3)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10798,7 +10805,7 @@
         <v>70</v>
       </c>
       <c r="G4" t="b">
-        <f>COUNTIF(A:A,A4)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10816,7 +10823,7 @@
         <v>77</v>
       </c>
       <c r="G5" t="b">
-        <f>COUNTIF(A:A,A5)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10834,7 +10841,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="b">
-        <f>COUNTIF(A:A,A6)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10852,7 +10859,7 @@
         <v>83</v>
       </c>
       <c r="G7" t="b">
-        <f>COUNTIF(A:A,A7)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10870,7 +10877,7 @@
         <v>86</v>
       </c>
       <c r="G8" t="b">
-        <f>COUNTIF(A:A,A8)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10888,7 +10895,7 @@
         <v>89</v>
       </c>
       <c r="G9" t="b">
-        <f>COUNTIF(A:A,A9)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10906,7 +10913,7 @@
         <v>93</v>
       </c>
       <c r="G10" t="b">
-        <f>COUNTIF(A:A,A10)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10924,7 +10931,7 @@
         <v>96</v>
       </c>
       <c r="G11" t="b">
-        <f>COUNTIF(A:A,A11)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10942,7 +10949,7 @@
         <v>99</v>
       </c>
       <c r="G12" t="b">
-        <f>COUNTIF(A:A,A12)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10960,7 +10967,7 @@
         <v>103</v>
       </c>
       <c r="G13" t="b">
-        <f>COUNTIF(A:A,A13)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10978,7 +10985,7 @@
         <v>106</v>
       </c>
       <c r="G14" t="b">
-        <f>COUNTIF(A:A,A14)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10996,7 +11003,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="b">
-        <f>COUNTIF(A:A,A15)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11014,7 +11021,7 @@
         <v>112</v>
       </c>
       <c r="G16" t="b">
-        <f>COUNTIF(A:A,A16)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11032,7 +11039,7 @@
         <v>115</v>
       </c>
       <c r="G17" t="b">
-        <f>COUNTIF(A:A,A17)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11050,7 +11057,7 @@
         <v>118</v>
       </c>
       <c r="G18" t="b">
-        <f>COUNTIF(A:A,A18)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11068,7 +11075,7 @@
         <v>121</v>
       </c>
       <c r="G19" t="b">
-        <f>COUNTIF(A:A,A19)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11083,7 +11090,7 @@
         <v>124</v>
       </c>
       <c r="G20" t="b">
-        <f>COUNTIF(A:A,A20)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11101,7 +11108,7 @@
         <v>127</v>
       </c>
       <c r="G21" t="b">
-        <f>COUNTIF(A:A,A21)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11119,7 +11126,7 @@
         <v>130</v>
       </c>
       <c r="G22" t="b">
-        <f>COUNTIF(A:A,A22)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11134,7 +11141,7 @@
         <v>133</v>
       </c>
       <c r="G23" t="b">
-        <f>COUNTIF(A:A,A23)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11149,7 +11156,7 @@
         <v>138</v>
       </c>
       <c r="G24" t="b">
-        <f>COUNTIF(A:A,A24)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11164,7 +11171,7 @@
         <v>141</v>
       </c>
       <c r="G25" t="b">
-        <f>COUNTIF(A:A,A25)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11182,7 +11189,7 @@
         <v>144</v>
       </c>
       <c r="G26" t="b">
-        <f>COUNTIF(A:A,A26)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11197,7 +11204,7 @@
         <v>147</v>
       </c>
       <c r="G27" t="b">
-        <f>COUNTIF(A:A,A27)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11215,7 +11222,7 @@
         <v>150</v>
       </c>
       <c r="G28" t="b">
-        <f>COUNTIF(A:A,A28)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11233,7 +11240,7 @@
         <v>153</v>
       </c>
       <c r="G29" t="b">
-        <f>COUNTIF(A:A,A29)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11251,7 +11258,7 @@
         <v>156</v>
       </c>
       <c r="G30" t="b">
-        <f>COUNTIF(A:A,A30)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11266,7 +11273,7 @@
         <v>158</v>
       </c>
       <c r="G31" t="b">
-        <f>COUNTIF(A:A,A31)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11284,7 +11291,7 @@
         <v>161</v>
       </c>
       <c r="G32" t="b">
-        <f>COUNTIF(A:A,A32)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11299,7 +11306,7 @@
         <v>168</v>
       </c>
       <c r="G33" t="b">
-        <f>COUNTIF(A:A,A33)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11317,7 +11324,7 @@
         <v>171</v>
       </c>
       <c r="G34" t="b">
-        <f>COUNTIF(A:A,A34)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11332,7 +11339,7 @@
         <v>173</v>
       </c>
       <c r="G35" t="b">
-        <f>COUNTIF(A:A,A35)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11347,7 +11354,7 @@
         <v>175</v>
       </c>
       <c r="G36" t="b">
-        <f>COUNTIF(A:A,A36)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11362,7 +11369,7 @@
         <v>178</v>
       </c>
       <c r="G37" t="b">
-        <f>COUNTIF(A:A,A37)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11377,7 +11384,7 @@
         <v>181</v>
       </c>
       <c r="G38" t="b">
-        <f>COUNTIF(A:A,A38)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11395,7 +11402,7 @@
         <v>184</v>
       </c>
       <c r="G39" t="b">
-        <f>COUNTIF(A:A,A39)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11413,7 +11420,7 @@
         <v>187</v>
       </c>
       <c r="G40" t="b">
-        <f>COUNTIF(A:A,A40)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11428,7 +11435,7 @@
         <v>189</v>
       </c>
       <c r="G41" t="b">
-        <f>COUNTIF(A:A,A41)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11443,7 +11450,7 @@
         <v>192</v>
       </c>
       <c r="G42" t="b">
-        <f>COUNTIF(A:A,A42)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11461,7 +11468,7 @@
         <v>198</v>
       </c>
       <c r="G43" t="b">
-        <f>COUNTIF(A:A,A43)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11476,7 +11483,7 @@
         <v>199</v>
       </c>
       <c r="G44" t="b">
-        <f>COUNTIF(A:A,A44)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11491,7 +11498,7 @@
         <v>202</v>
       </c>
       <c r="G45" t="b">
-        <f>COUNTIF(A:A,A45)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11509,7 +11516,7 @@
         <v>209</v>
       </c>
       <c r="G46" t="b">
-        <f>COUNTIF(A:A,A46)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11527,7 +11534,7 @@
         <v>212</v>
       </c>
       <c r="G47" t="b">
-        <f>COUNTIF(A:A,A47)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11542,7 +11549,7 @@
         <v>215</v>
       </c>
       <c r="G48" t="b">
-        <f>COUNTIF(A:A,A48)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11557,7 +11564,7 @@
         <v>225</v>
       </c>
       <c r="G49" t="b">
-        <f>COUNTIF(A:A,A49)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11572,7 +11579,7 @@
         <v>228</v>
       </c>
       <c r="G50" t="b">
-        <f>COUNTIF(A:A,A50)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11587,7 +11594,7 @@
         <v>230</v>
       </c>
       <c r="G51" t="b">
-        <f>COUNTIF(A:A,A51)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11602,7 +11609,7 @@
         <v>232</v>
       </c>
       <c r="G52" t="b">
-        <f>COUNTIF(A:A,A52)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11617,7 +11624,7 @@
         <v>234</v>
       </c>
       <c r="G53" t="b">
-        <f>COUNTIF(A:A,A53)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11632,7 +11639,7 @@
         <v>237</v>
       </c>
       <c r="G54" t="b">
-        <f>COUNTIF(A:A,A54)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11650,7 +11657,7 @@
         <v>240</v>
       </c>
       <c r="G55" t="b">
-        <f>COUNTIF(A:A,A55)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11668,7 +11675,7 @@
         <v>243</v>
       </c>
       <c r="G56" t="b">
-        <f>COUNTIF(A:A,A56)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11683,7 +11690,7 @@
         <v>246</v>
       </c>
       <c r="G57" t="b">
-        <f>COUNTIF(A:A,A57)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11701,7 +11708,7 @@
         <v>250</v>
       </c>
       <c r="G58" t="b">
-        <f>COUNTIF(A:A,A58)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11719,7 +11726,7 @@
         <v>254</v>
       </c>
       <c r="G59" t="b">
-        <f>COUNTIF(A:A,A59)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11734,7 +11741,7 @@
         <v>260</v>
       </c>
       <c r="G60" t="b">
-        <f>COUNTIF(A:A,A60)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11749,7 +11756,7 @@
         <v>263</v>
       </c>
       <c r="G61" t="b">
-        <f>COUNTIF(A:A,A61)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11767,7 +11774,7 @@
         <v>270</v>
       </c>
       <c r="G62" t="b">
-        <f>COUNTIF(A:A,A62)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11785,7 +11792,7 @@
         <v>273</v>
       </c>
       <c r="G63" t="b">
-        <f>COUNTIF(A:A,A63)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11803,7 +11810,7 @@
         <v>276</v>
       </c>
       <c r="G64" t="b">
-        <f>COUNTIF(A:A,A64)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11818,7 +11825,7 @@
         <v>279</v>
       </c>
       <c r="G65" t="b">
-        <f>COUNTIF(A:A,A65)&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11836,7 +11843,7 @@
         <v>282</v>
       </c>
       <c r="G66" t="b">
-        <f>COUNTIF(A:A,A66)&gt;1</f>
+        <f t="shared" ref="G66:G129" si="1">COUNTIF(A:A,A66)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -11854,7 +11861,7 @@
         <v>286</v>
       </c>
       <c r="G67" t="b">
-        <f>COUNTIF(A:A,A67)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11872,7 +11879,7 @@
         <v>289</v>
       </c>
       <c r="G68" t="b">
-        <f>COUNTIF(A:A,A68)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11890,7 +11897,7 @@
         <v>293</v>
       </c>
       <c r="G69" t="b">
-        <f>COUNTIF(A:A,A69)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11908,7 +11915,7 @@
         <v>296</v>
       </c>
       <c r="G70" t="b">
-        <f>COUNTIF(A:A,A70)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11923,7 +11930,7 @@
         <v>299</v>
       </c>
       <c r="G71" t="b">
-        <f>COUNTIF(A:A,A71)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11941,7 +11948,7 @@
         <v>302</v>
       </c>
       <c r="G72" t="b">
-        <f>COUNTIF(A:A,A72)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11959,7 +11966,7 @@
         <v>306</v>
       </c>
       <c r="G73" t="b">
-        <f>COUNTIF(A:A,A73)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11974,7 +11981,7 @@
         <v>309</v>
       </c>
       <c r="G74" t="b">
-        <f>COUNTIF(A:A,A74)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11992,7 +11999,7 @@
         <v>312</v>
       </c>
       <c r="G75" t="b">
-        <f>COUNTIF(A:A,A75)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12010,7 +12017,7 @@
         <v>319</v>
       </c>
       <c r="G76" t="b">
-        <f>COUNTIF(A:A,A76)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12028,7 +12035,7 @@
         <v>325</v>
       </c>
       <c r="G77" t="b">
-        <f>COUNTIF(A:A,A77)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12043,7 +12050,7 @@
         <v>328</v>
       </c>
       <c r="G78" t="b">
-        <f>COUNTIF(A:A,A78)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12061,7 +12068,7 @@
         <v>332</v>
       </c>
       <c r="G79" t="b">
-        <f>COUNTIF(A:A,A79)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12079,7 +12086,7 @@
         <v>335</v>
       </c>
       <c r="G80" t="b">
-        <f>COUNTIF(A:A,A80)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12097,7 +12104,7 @@
         <v>339</v>
       </c>
       <c r="G81" t="b">
-        <f>COUNTIF(A:A,A81)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12112,7 +12119,7 @@
         <v>342</v>
       </c>
       <c r="G82" t="b">
-        <f>COUNTIF(A:A,A82)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12130,7 +12137,7 @@
         <v>345</v>
       </c>
       <c r="G83" t="b">
-        <f>COUNTIF(A:A,A83)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12145,7 +12152,7 @@
         <v>346</v>
       </c>
       <c r="G84" t="b">
-        <f>COUNTIF(A:A,A84)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12160,7 +12167,7 @@
         <v>349</v>
       </c>
       <c r="G85" t="b">
-        <f>COUNTIF(A:A,A85)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12178,7 +12185,7 @@
         <v>352</v>
       </c>
       <c r="G86" t="b">
-        <f>COUNTIF(A:A,A86)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12196,7 +12203,7 @@
         <v>355</v>
       </c>
       <c r="G87" t="b">
-        <f>COUNTIF(A:A,A87)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12211,7 +12218,7 @@
         <v>356</v>
       </c>
       <c r="G88" t="b">
-        <f>COUNTIF(A:A,A88)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12229,7 +12236,7 @@
         <v>359</v>
       </c>
       <c r="G89" t="b">
-        <f>COUNTIF(A:A,A89)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12247,7 +12254,7 @@
         <v>363</v>
       </c>
       <c r="G90" t="b">
-        <f>COUNTIF(A:A,A90)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12265,7 +12272,7 @@
         <v>367</v>
       </c>
       <c r="G91" t="b">
-        <f>COUNTIF(A:A,A91)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12280,7 +12287,7 @@
         <v>370</v>
       </c>
       <c r="G92" t="b">
-        <f>COUNTIF(A:A,A92)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12301,7 +12308,7 @@
         <v>375</v>
       </c>
       <c r="G93" t="b">
-        <f>COUNTIF(A:A,A93)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12316,7 +12323,7 @@
         <v>377</v>
       </c>
       <c r="G94" t="b">
-        <f>COUNTIF(A:A,A94)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12334,7 +12341,7 @@
         <v>381</v>
       </c>
       <c r="G95" t="b">
-        <f>COUNTIF(A:A,A95)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12352,7 +12359,7 @@
         <v>385</v>
       </c>
       <c r="G96" t="b">
-        <f>COUNTIF(A:A,A96)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12367,7 +12374,7 @@
         <v>387</v>
       </c>
       <c r="G97" t="b">
-        <f>COUNTIF(A:A,A97)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12385,7 +12392,7 @@
         <v>390</v>
       </c>
       <c r="G98" t="b">
-        <f>COUNTIF(A:A,A98)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12400,7 +12407,7 @@
         <v>392</v>
       </c>
       <c r="G99" t="b">
-        <f>COUNTIF(A:A,A99)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12415,7 +12422,7 @@
         <v>395</v>
       </c>
       <c r="G100" t="b">
-        <f>COUNTIF(A:A,A100)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12430,7 +12437,7 @@
         <v>396</v>
       </c>
       <c r="G101" t="b">
-        <f>COUNTIF(A:A,A101)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12448,7 +12455,7 @@
         <v>404</v>
       </c>
       <c r="G102" t="b">
-        <f>COUNTIF(A:A,A102)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12466,7 +12473,7 @@
         <v>407</v>
       </c>
       <c r="G103" t="b">
-        <f>COUNTIF(A:A,A103)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12484,7 +12491,7 @@
         <v>411</v>
       </c>
       <c r="G104" t="b">
-        <f>COUNTIF(A:A,A104)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12502,7 +12509,7 @@
         <v>414</v>
       </c>
       <c r="G105" t="b">
-        <f>COUNTIF(A:A,A105)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12517,7 +12524,7 @@
         <v>417</v>
       </c>
       <c r="G106" t="b">
-        <f>COUNTIF(A:A,A106)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12532,7 +12539,7 @@
         <v>420</v>
       </c>
       <c r="G107" t="b">
-        <f>COUNTIF(A:A,A107)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12547,7 +12554,7 @@
         <v>423</v>
       </c>
       <c r="G108" t="b">
-        <f>COUNTIF(A:A,A108)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12565,7 +12572,7 @@
         <v>430</v>
       </c>
       <c r="G109" t="b">
-        <f>COUNTIF(A:A,A109)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12580,7 +12587,7 @@
         <v>433</v>
       </c>
       <c r="G110" t="b">
-        <f>COUNTIF(A:A,A110)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12598,7 +12605,7 @@
         <v>437</v>
       </c>
       <c r="G111" t="b">
-        <f>COUNTIF(A:A,A111)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12616,7 +12623,7 @@
         <v>440</v>
       </c>
       <c r="G112" t="b">
-        <f>COUNTIF(A:A,A112)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12634,7 +12641,7 @@
         <v>443</v>
       </c>
       <c r="G113" t="b">
-        <f>COUNTIF(A:A,A113)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12649,7 +12656,7 @@
         <v>446</v>
       </c>
       <c r="G114" t="b">
-        <f>COUNTIF(A:A,A114)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12667,7 +12674,7 @@
         <v>449</v>
       </c>
       <c r="G115" t="b">
-        <f>COUNTIF(A:A,A115)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12685,7 +12692,7 @@
         <v>452</v>
       </c>
       <c r="G116" t="b">
-        <f>COUNTIF(A:A,A116)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12700,7 +12707,7 @@
         <v>453</v>
       </c>
       <c r="G117" t="b">
-        <f>COUNTIF(A:A,A117)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12715,7 +12722,7 @@
         <v>459</v>
       </c>
       <c r="G118" t="b">
-        <f>COUNTIF(A:A,A118)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12733,7 +12740,7 @@
         <v>462</v>
       </c>
       <c r="G119" t="b">
-        <f>COUNTIF(A:A,A119)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12751,7 +12758,7 @@
         <v>465</v>
       </c>
       <c r="G120" t="b">
-        <f>COUNTIF(A:A,A120)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12766,7 +12773,7 @@
         <v>468</v>
       </c>
       <c r="G121" t="b">
-        <f>COUNTIF(A:A,A121)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12781,7 +12788,7 @@
         <v>471</v>
       </c>
       <c r="G122" t="b">
-        <f>COUNTIF(A:A,A122)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12799,7 +12806,7 @@
         <v>474</v>
       </c>
       <c r="G123" t="b">
-        <f>COUNTIF(A:A,A123)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12817,7 +12824,7 @@
         <v>477</v>
       </c>
       <c r="G124" t="b">
-        <f>COUNTIF(A:A,A124)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12835,7 +12842,7 @@
         <v>480</v>
       </c>
       <c r="G125" t="b">
-        <f>COUNTIF(A:A,A125)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12853,7 +12860,7 @@
         <v>484</v>
       </c>
       <c r="G126" t="b">
-        <f>COUNTIF(A:A,A126)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12868,7 +12875,7 @@
         <v>487</v>
       </c>
       <c r="G127" t="b">
-        <f>COUNTIF(A:A,A127)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12886,7 +12893,7 @@
         <v>490</v>
       </c>
       <c r="G128" t="b">
-        <f>COUNTIF(A:A,A128)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12904,7 +12911,7 @@
         <v>493</v>
       </c>
       <c r="G129" t="b">
-        <f>COUNTIF(A:A,A129)&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12922,7 +12929,7 @@
         <v>496</v>
       </c>
       <c r="G130" t="b">
-        <f>COUNTIF(A:A,A130)&gt;1</f>
+        <f t="shared" ref="G130:G193" si="2">COUNTIF(A:A,A130)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -12940,7 +12947,7 @@
         <v>500</v>
       </c>
       <c r="G131" t="b">
-        <f>COUNTIF(A:A,A131)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12958,7 +12965,7 @@
         <v>503</v>
       </c>
       <c r="G132" t="b">
-        <f>COUNTIF(A:A,A132)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12973,7 +12980,7 @@
         <v>506</v>
       </c>
       <c r="G133" t="b">
-        <f>COUNTIF(A:A,A133)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12991,7 +12998,7 @@
         <v>509</v>
       </c>
       <c r="G134" t="b">
-        <f>COUNTIF(A:A,A134)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13006,7 +13013,7 @@
         <v>512</v>
       </c>
       <c r="G135" t="b">
-        <f>COUNTIF(A:A,A135)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13024,7 +13031,7 @@
         <v>515</v>
       </c>
       <c r="G136" t="b">
-        <f>COUNTIF(A:A,A136)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13045,7 +13052,7 @@
         <v>519</v>
       </c>
       <c r="G137" t="b">
-        <f>COUNTIF(A:A,A137)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13063,7 +13070,7 @@
         <v>523</v>
       </c>
       <c r="G138" t="b">
-        <f>COUNTIF(A:A,A138)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13078,7 +13085,7 @@
         <v>526</v>
       </c>
       <c r="G139" t="b">
-        <f>COUNTIF(A:A,A139)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13093,7 +13100,7 @@
         <v>529</v>
       </c>
       <c r="G140" t="b">
-        <f>COUNTIF(A:A,A140)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13111,7 +13118,7 @@
         <v>532</v>
       </c>
       <c r="G141" t="b">
-        <f>COUNTIF(A:A,A141)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13129,7 +13136,7 @@
         <v>535</v>
       </c>
       <c r="G142" t="b">
-        <f>COUNTIF(A:A,A142)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13144,7 +13151,7 @@
         <v>538</v>
       </c>
       <c r="G143" t="b">
-        <f>COUNTIF(A:A,A143)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13162,7 +13169,7 @@
         <v>70</v>
       </c>
       <c r="G144" t="b">
-        <f>COUNTIF(A:A,A144)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13180,7 +13187,7 @@
         <v>544</v>
       </c>
       <c r="G145" t="b">
-        <f>COUNTIF(A:A,A145)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13195,7 +13202,7 @@
         <v>547</v>
       </c>
       <c r="G146" t="b">
-        <f>COUNTIF(A:A,A146)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13213,7 +13220,7 @@
         <v>420</v>
       </c>
       <c r="G147" t="b">
-        <f>COUNTIF(A:A,A147)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13231,7 +13238,7 @@
         <v>554</v>
       </c>
       <c r="G148" t="b">
-        <f>COUNTIF(A:A,A148)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13246,7 +13253,7 @@
         <v>557</v>
       </c>
       <c r="G149" t="b">
-        <f>COUNTIF(A:A,A149)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13264,7 +13271,7 @@
         <v>560</v>
       </c>
       <c r="G150" t="b">
-        <f>COUNTIF(A:A,A150)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13282,7 +13289,7 @@
         <v>563</v>
       </c>
       <c r="G151" t="b">
-        <f>COUNTIF(A:A,A151)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13297,7 +13304,7 @@
         <v>566</v>
       </c>
       <c r="G152" t="b">
-        <f>COUNTIF(A:A,A152)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13315,7 +13322,7 @@
         <v>569</v>
       </c>
       <c r="G153" t="b">
-        <f>COUNTIF(A:A,A153)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13333,7 +13340,7 @@
         <v>573</v>
       </c>
       <c r="G154" t="b">
-        <f>COUNTIF(A:A,A154)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13351,7 +13358,7 @@
         <v>581</v>
       </c>
       <c r="G155" t="b">
-        <f>COUNTIF(A:A,A155)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13366,7 +13373,7 @@
         <v>586</v>
       </c>
       <c r="G156" t="b">
-        <f>COUNTIF(A:A,A156)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13384,7 +13391,7 @@
         <v>589</v>
       </c>
       <c r="G157" t="b">
-        <f>COUNTIF(A:A,A157)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13399,7 +13406,7 @@
         <v>18</v>
       </c>
       <c r="G158" t="b">
-        <f>COUNTIF(A:A,A158)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13417,7 +13424,7 @@
         <v>595</v>
       </c>
       <c r="G159" t="b">
-        <f>COUNTIF(A:A,A159)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13435,7 +13442,7 @@
         <v>598</v>
       </c>
       <c r="G160" t="b">
-        <f>COUNTIF(A:A,A160)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13450,7 +13457,7 @@
         <v>603</v>
       </c>
       <c r="G161" t="b">
-        <f>COUNTIF(A:A,A161)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13468,7 +13475,7 @@
         <v>222</v>
       </c>
       <c r="G162" t="b">
-        <f>COUNTIF(A:A,A162)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13486,7 +13493,7 @@
         <v>606</v>
       </c>
       <c r="G163" t="b">
-        <f>COUNTIF(A:A,A163)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13504,7 +13511,7 @@
         <v>610</v>
       </c>
       <c r="G164" t="b">
-        <f>COUNTIF(A:A,A164)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13522,7 +13529,7 @@
         <v>614</v>
       </c>
       <c r="G165" t="b">
-        <f>COUNTIF(A:A,A165)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13537,7 +13544,7 @@
         <v>617</v>
       </c>
       <c r="G166" t="b">
-        <f>COUNTIF(A:A,A166)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13555,7 +13562,7 @@
         <v>620</v>
       </c>
       <c r="G167" t="b">
-        <f>COUNTIF(A:A,A167)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13573,7 +13580,7 @@
         <v>623</v>
       </c>
       <c r="G168" t="b">
-        <f>COUNTIF(A:A,A168)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13591,7 +13598,7 @@
         <v>627</v>
       </c>
       <c r="G169" t="b">
-        <f>COUNTIF(A:A,A169)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13609,7 +13616,7 @@
         <v>630</v>
       </c>
       <c r="G170" t="b">
-        <f>COUNTIF(A:A,A170)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13627,7 +13634,7 @@
         <v>633</v>
       </c>
       <c r="G171" t="b">
-        <f>COUNTIF(A:A,A171)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13642,7 +13649,7 @@
         <v>636</v>
       </c>
       <c r="G172" t="b">
-        <f>COUNTIF(A:A,A172)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13660,7 +13667,7 @@
         <v>643</v>
       </c>
       <c r="G173" t="b">
-        <f>COUNTIF(A:A,A173)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13678,7 +13685,7 @@
         <v>646</v>
       </c>
       <c r="G174" t="b">
-        <f>COUNTIF(A:A,A174)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13693,7 +13700,7 @@
         <v>649</v>
       </c>
       <c r="G175" t="b">
-        <f>COUNTIF(A:A,A175)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13708,7 +13715,7 @@
         <v>652</v>
       </c>
       <c r="G176" t="b">
-        <f>COUNTIF(A:A,A176)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13726,7 +13733,7 @@
         <v>656</v>
       </c>
       <c r="G177" t="b">
-        <f>COUNTIF(A:A,A177)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13744,7 +13751,7 @@
         <v>659</v>
       </c>
       <c r="G178" t="b">
-        <f>COUNTIF(A:A,A178)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13759,7 +13766,7 @@
         <v>661</v>
       </c>
       <c r="G179" t="b">
-        <f>COUNTIF(A:A,A179)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13774,7 +13781,7 @@
         <v>664</v>
       </c>
       <c r="G180" t="b">
-        <f>COUNTIF(A:A,A180)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13789,7 +13796,7 @@
         <v>666</v>
       </c>
       <c r="G181" t="b">
-        <f>COUNTIF(A:A,A181)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13807,7 +13814,7 @@
         <v>670</v>
       </c>
       <c r="G182" t="b">
-        <f>COUNTIF(A:A,A182)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13825,7 +13832,7 @@
         <v>673</v>
       </c>
       <c r="G183" t="b">
-        <f>COUNTIF(A:A,A183)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13840,7 +13847,7 @@
         <v>309</v>
       </c>
       <c r="G184" t="b">
-        <f>COUNTIF(A:A,A184)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13858,7 +13865,7 @@
         <v>678</v>
       </c>
       <c r="G185" t="b">
-        <f>COUNTIF(A:A,A185)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13876,7 +13883,7 @@
         <v>682</v>
       </c>
       <c r="G186" t="b">
-        <f>COUNTIF(A:A,A186)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13894,7 +13901,7 @@
         <v>686</v>
       </c>
       <c r="G187" t="b">
-        <f>COUNTIF(A:A,A187)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13912,7 +13919,7 @@
         <v>689</v>
       </c>
       <c r="G188" t="b">
-        <f>COUNTIF(A:A,A188)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13930,7 +13937,7 @@
         <v>693</v>
       </c>
       <c r="G189" t="b">
-        <f>COUNTIF(A:A,A189)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13945,7 +13952,7 @@
         <v>696</v>
       </c>
       <c r="G190" t="b">
-        <f>COUNTIF(A:A,A190)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13963,7 +13970,7 @@
         <v>339</v>
       </c>
       <c r="G191" t="b">
-        <f>COUNTIF(A:A,A191)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13981,7 +13988,7 @@
         <v>702</v>
       </c>
       <c r="G192" t="b">
-        <f>COUNTIF(A:A,A192)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13999,7 +14006,7 @@
         <v>705</v>
       </c>
       <c r="G193" t="b">
-        <f>COUNTIF(A:A,A193)&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -14017,7 +14024,7 @@
         <v>708</v>
       </c>
       <c r="G194" t="b">
-        <f>COUNTIF(A:A,A194)&gt;1</f>
+        <f t="shared" ref="G194:G257" si="3">COUNTIF(A:A,A194)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -14035,7 +14042,7 @@
         <v>711</v>
       </c>
       <c r="G195" t="b">
-        <f>COUNTIF(A:A,A195)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14053,7 +14060,7 @@
         <v>715</v>
       </c>
       <c r="G196" t="b">
-        <f>COUNTIF(A:A,A196)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14071,7 +14078,7 @@
         <v>718</v>
       </c>
       <c r="G197" t="b">
-        <f>COUNTIF(A:A,A197)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14089,7 +14096,7 @@
         <v>721</v>
       </c>
       <c r="G198" t="b">
-        <f>COUNTIF(A:A,A198)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14107,7 +14114,7 @@
         <v>724</v>
       </c>
       <c r="G199" t="b">
-        <f>COUNTIF(A:A,A199)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14125,7 +14132,7 @@
         <v>728</v>
       </c>
       <c r="G200" t="b">
-        <f>COUNTIF(A:A,A200)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14143,7 +14150,7 @@
         <v>731</v>
       </c>
       <c r="G201" t="b">
-        <f>COUNTIF(A:A,A201)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14158,7 +14165,7 @@
         <v>733</v>
       </c>
       <c r="G202" t="b">
-        <f>COUNTIF(A:A,A202)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14173,7 +14180,7 @@
         <v>735</v>
       </c>
       <c r="G203" t="b">
-        <f>COUNTIF(A:A,A203)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14191,7 +14198,7 @@
         <v>739</v>
       </c>
       <c r="G204" t="b">
-        <f>COUNTIF(A:A,A204)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14206,7 +14213,7 @@
         <v>741</v>
       </c>
       <c r="G205" t="b">
-        <f>COUNTIF(A:A,A205)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14224,7 +14231,7 @@
         <v>744</v>
       </c>
       <c r="G206" t="b">
-        <f>COUNTIF(A:A,A206)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14239,7 +14246,7 @@
         <v>747</v>
       </c>
       <c r="G207" t="b">
-        <f>COUNTIF(A:A,A207)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14254,7 +14261,7 @@
         <v>750</v>
       </c>
       <c r="G208" t="b">
-        <f>COUNTIF(A:A,A208)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14272,7 +14279,7 @@
         <v>753</v>
       </c>
       <c r="G209" t="b">
-        <f>COUNTIF(A:A,A209)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14287,7 +14294,7 @@
         <v>756</v>
       </c>
       <c r="G210" t="b">
-        <f>COUNTIF(A:A,A210)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14302,7 +14309,7 @@
         <v>759</v>
       </c>
       <c r="G211" t="b">
-        <f>COUNTIF(A:A,A211)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14320,7 +14327,7 @@
         <v>766</v>
       </c>
       <c r="G212" t="b">
-        <f>COUNTIF(A:A,A212)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14338,7 +14345,7 @@
         <v>768</v>
       </c>
       <c r="G213" t="b">
-        <f>COUNTIF(A:A,A213)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14353,7 +14360,7 @@
         <v>771</v>
       </c>
       <c r="G214" t="b">
-        <f>COUNTIF(A:A,A214)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14371,7 +14378,7 @@
         <v>774</v>
       </c>
       <c r="G215" t="b">
-        <f>COUNTIF(A:A,A215)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14386,7 +14393,7 @@
         <v>777</v>
       </c>
       <c r="G216" t="b">
-        <f>COUNTIF(A:A,A216)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14404,7 +14411,7 @@
         <v>780</v>
       </c>
       <c r="G217" t="b">
-        <f>COUNTIF(A:A,A217)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14419,7 +14426,7 @@
         <v>782</v>
       </c>
       <c r="G218" t="b">
-        <f>COUNTIF(A:A,A218)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14434,7 +14441,7 @@
         <v>785</v>
       </c>
       <c r="G219" t="b">
-        <f>COUNTIF(A:A,A219)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14449,7 +14456,7 @@
         <v>788</v>
       </c>
       <c r="G220" t="b">
-        <f>COUNTIF(A:A,A220)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14464,7 +14471,7 @@
         <v>791</v>
       </c>
       <c r="G221" t="b">
-        <f>COUNTIF(A:A,A221)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14482,7 +14489,7 @@
         <v>794</v>
       </c>
       <c r="G222" t="b">
-        <f>COUNTIF(A:A,A222)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14497,7 +14504,7 @@
         <v>797</v>
       </c>
       <c r="G223" t="b">
-        <f>COUNTIF(A:A,A223)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14515,7 +14522,7 @@
         <v>800</v>
       </c>
       <c r="G224" t="b">
-        <f>COUNTIF(A:A,A224)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14533,7 +14540,7 @@
         <v>803</v>
       </c>
       <c r="G225" t="b">
-        <f>COUNTIF(A:A,A225)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14548,7 +14555,7 @@
         <v>806</v>
       </c>
       <c r="G226" t="b">
-        <f>COUNTIF(A:A,A226)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14563,7 +14570,7 @@
         <v>809</v>
       </c>
       <c r="G227" t="b">
-        <f>COUNTIF(A:A,A227)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14581,7 +14588,7 @@
         <v>812</v>
       </c>
       <c r="G228" t="b">
-        <f>COUNTIF(A:A,A228)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14599,7 +14606,7 @@
         <v>815</v>
       </c>
       <c r="G229" t="b">
-        <f>COUNTIF(A:A,A229)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14617,7 +14624,7 @@
         <v>818</v>
       </c>
       <c r="G230" t="b">
-        <f>COUNTIF(A:A,A230)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14635,7 +14642,7 @@
         <v>821</v>
       </c>
       <c r="G231" t="b">
-        <f>COUNTIF(A:A,A231)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14647,13 +14654,13 @@
         <v>826</v>
       </c>
       <c r="D232" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="E232" t="s">
         <v>828</v>
       </c>
       <c r="G232" t="b">
-        <f>COUNTIF(A:A,A232)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14668,7 +14675,7 @@
         <v>831</v>
       </c>
       <c r="G233" t="b">
-        <f>COUNTIF(A:A,A233)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14683,7 +14690,7 @@
         <v>834</v>
       </c>
       <c r="G234" t="b">
-        <f>COUNTIF(A:A,A234)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14701,7 +14708,7 @@
         <v>837</v>
       </c>
       <c r="G235" t="b">
-        <f>COUNTIF(A:A,A235)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14719,7 +14726,7 @@
         <v>840</v>
       </c>
       <c r="G236" t="b">
-        <f>COUNTIF(A:A,A236)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14734,7 +14741,7 @@
         <v>843</v>
       </c>
       <c r="G237" t="b">
-        <f>COUNTIF(A:A,A237)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14755,7 +14762,7 @@
         <v>846</v>
       </c>
       <c r="G238" t="b">
-        <f>COUNTIF(A:A,A238)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14773,7 +14780,7 @@
         <v>849</v>
       </c>
       <c r="G239" t="b">
-        <f>COUNTIF(A:A,A239)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14791,7 +14798,7 @@
         <v>853</v>
       </c>
       <c r="G240" t="b">
-        <f>COUNTIF(A:A,A240)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14809,7 +14816,7 @@
         <v>332</v>
       </c>
       <c r="G241" t="b">
-        <f>COUNTIF(A:A,A241)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14824,7 +14831,7 @@
         <v>857</v>
       </c>
       <c r="G242" t="b">
-        <f>COUNTIF(A:A,A242)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14842,7 +14849,7 @@
         <v>375</v>
       </c>
       <c r="G243" t="b">
-        <f>COUNTIF(A:A,A243)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14860,7 +14867,7 @@
         <v>862</v>
       </c>
       <c r="G244" t="b">
-        <f>COUNTIF(A:A,A244)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14875,7 +14882,7 @@
         <v>865</v>
       </c>
       <c r="G245" t="b">
-        <f>COUNTIF(A:A,A245)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14893,7 +14900,7 @@
         <v>869</v>
       </c>
       <c r="G246" t="b">
-        <f>COUNTIF(A:A,A246)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14908,7 +14915,7 @@
         <v>872</v>
       </c>
       <c r="G247" t="b">
-        <f>COUNTIF(A:A,A247)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14926,7 +14933,7 @@
         <v>876</v>
       </c>
       <c r="G248" t="b">
-        <f>COUNTIF(A:A,A248)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14944,7 +14951,7 @@
         <v>879</v>
       </c>
       <c r="G249" t="b">
-        <f>COUNTIF(A:A,A249)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14962,7 +14969,7 @@
         <v>882</v>
       </c>
       <c r="G250" t="b">
-        <f>COUNTIF(A:A,A250)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14980,7 +14987,7 @@
         <v>885</v>
       </c>
       <c r="G251" t="b">
-        <f>COUNTIF(A:A,A251)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14995,7 +15002,7 @@
         <v>888</v>
       </c>
       <c r="G252" t="b">
-        <f>COUNTIF(A:A,A252)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15013,7 +15020,7 @@
         <v>892</v>
       </c>
       <c r="G253" t="b">
-        <f>COUNTIF(A:A,A253)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15028,7 +15035,7 @@
         <v>895</v>
       </c>
       <c r="G254" t="b">
-        <f>COUNTIF(A:A,A254)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15046,7 +15053,7 @@
         <v>899</v>
       </c>
       <c r="G255" t="b">
-        <f>COUNTIF(A:A,A255)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15064,7 +15071,7 @@
         <v>903</v>
       </c>
       <c r="G256" t="b">
-        <f>COUNTIF(A:A,A256)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15082,7 +15089,7 @@
         <v>906</v>
       </c>
       <c r="G257" t="b">
-        <f>COUNTIF(A:A,A257)&gt;1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15100,7 +15107,7 @@
         <v>910</v>
       </c>
       <c r="G258" t="b">
-        <f>COUNTIF(A:A,A258)&gt;1</f>
+        <f t="shared" ref="G258:G321" si="4">COUNTIF(A:A,A258)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15118,7 +15125,7 @@
         <v>3147</v>
       </c>
       <c r="G259" t="b">
-        <f>COUNTIF(A:A,A259)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15136,7 +15143,7 @@
         <v>916</v>
       </c>
       <c r="G260" t="b">
-        <f>COUNTIF(A:A,A260)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15154,7 +15161,7 @@
         <v>920</v>
       </c>
       <c r="G261" t="b">
-        <f>COUNTIF(A:A,A261)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15169,7 +15176,7 @@
         <v>500</v>
       </c>
       <c r="G262" t="b">
-        <f>COUNTIF(A:A,A262)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15184,7 +15191,7 @@
         <v>924</v>
       </c>
       <c r="G263" t="b">
-        <f>COUNTIF(A:A,A263)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15199,7 +15206,7 @@
         <v>927</v>
       </c>
       <c r="G264" t="b">
-        <f>COUNTIF(A:A,A264)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15217,7 +15224,7 @@
         <v>930</v>
       </c>
       <c r="G265" t="b">
-        <f>COUNTIF(A:A,A265)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15232,7 +15239,7 @@
         <v>933</v>
       </c>
       <c r="G266" t="b">
-        <f>COUNTIF(A:A,A266)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15250,7 +15257,7 @@
         <v>936</v>
       </c>
       <c r="G267" t="b">
-        <f>COUNTIF(A:A,A267)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15268,7 +15275,7 @@
         <v>940</v>
       </c>
       <c r="G268" t="b">
-        <f>COUNTIF(A:A,A268)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15283,7 +15290,7 @@
         <v>943</v>
       </c>
       <c r="G269" t="b">
-        <f>COUNTIF(A:A,A269)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15298,7 +15305,7 @@
         <v>945</v>
       </c>
       <c r="G270" t="b">
-        <f>COUNTIF(A:A,A270)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15313,7 +15320,7 @@
         <v>948</v>
       </c>
       <c r="G271" t="b">
-        <f>COUNTIF(A:A,A271)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15331,7 +15338,7 @@
         <v>951</v>
       </c>
       <c r="G272" t="b">
-        <f>COUNTIF(A:A,A272)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15349,7 +15356,7 @@
         <v>954</v>
       </c>
       <c r="G273" t="b">
-        <f>COUNTIF(A:A,A273)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15367,7 +15374,7 @@
         <v>957</v>
       </c>
       <c r="G274" t="b">
-        <f>COUNTIF(A:A,A274)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15382,7 +15389,7 @@
         <v>960</v>
       </c>
       <c r="G275" t="b">
-        <f>COUNTIF(A:A,A275)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15400,7 +15407,7 @@
         <v>966</v>
       </c>
       <c r="G276" t="b">
-        <f>COUNTIF(A:A,A276)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15418,7 +15425,7 @@
         <v>970</v>
       </c>
       <c r="G277" t="b">
-        <f>COUNTIF(A:A,A277)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15433,7 +15440,7 @@
         <v>973</v>
       </c>
       <c r="G278" t="b">
-        <f>COUNTIF(A:A,A278)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15451,7 +15458,7 @@
         <v>976</v>
       </c>
       <c r="G279" t="b">
-        <f>COUNTIF(A:A,A279)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15466,7 +15473,7 @@
         <v>979</v>
       </c>
       <c r="G280" t="b">
-        <f>COUNTIF(A:A,A280)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15487,7 +15494,7 @@
         <v>983</v>
       </c>
       <c r="G281" t="b">
-        <f>COUNTIF(A:A,A281)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15505,7 +15512,7 @@
         <v>987</v>
       </c>
       <c r="G282" t="b">
-        <f>COUNTIF(A:A,A282)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15520,7 +15527,7 @@
         <v>989</v>
       </c>
       <c r="G283" t="b">
-        <f>COUNTIF(A:A,A283)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15535,7 +15542,7 @@
         <v>990</v>
       </c>
       <c r="G284" t="b">
-        <f>COUNTIF(A:A,A284)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15550,7 +15557,7 @@
         <v>993</v>
       </c>
       <c r="G285" t="b">
-        <f>COUNTIF(A:A,A285)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15565,7 +15572,7 @@
         <v>994</v>
       </c>
       <c r="G286" t="b">
-        <f>COUNTIF(A:A,A286)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15583,7 +15590,7 @@
         <v>998</v>
       </c>
       <c r="G287" t="b">
-        <f>COUNTIF(A:A,A287)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15598,7 +15605,7 @@
         <v>1000</v>
       </c>
       <c r="G288" t="b">
-        <f>COUNTIF(A:A,A288)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15616,7 +15623,7 @@
         <v>1004</v>
       </c>
       <c r="G289" t="b">
-        <f>COUNTIF(A:A,A289)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15634,7 +15641,7 @@
         <v>1007</v>
       </c>
       <c r="G290" t="b">
-        <f>COUNTIF(A:A,A290)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15652,7 +15659,7 @@
         <v>1010</v>
       </c>
       <c r="G291" t="b">
-        <f>COUNTIF(A:A,A291)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15670,7 +15677,7 @@
         <v>1013</v>
       </c>
       <c r="G292" t="b">
-        <f>COUNTIF(A:A,A292)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15685,7 +15692,7 @@
         <v>1015</v>
       </c>
       <c r="G293" t="b">
-        <f>COUNTIF(A:A,A293)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15703,7 +15710,7 @@
         <v>1019</v>
       </c>
       <c r="G294" t="b">
-        <f>COUNTIF(A:A,A294)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15721,7 +15728,7 @@
         <v>1023</v>
       </c>
       <c r="G295" t="b">
-        <f>COUNTIF(A:A,A295)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15739,7 +15746,7 @@
         <v>1026</v>
       </c>
       <c r="G296" t="b">
-        <f>COUNTIF(A:A,A296)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15757,7 +15764,7 @@
         <v>3148</v>
       </c>
       <c r="G297" t="b">
-        <f>COUNTIF(A:A,A297)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15772,7 +15779,7 @@
         <v>1029</v>
       </c>
       <c r="G298" t="b">
-        <f>COUNTIF(A:A,A298)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15787,7 +15794,7 @@
         <v>1033</v>
       </c>
       <c r="G299" t="b">
-        <f>COUNTIF(A:A,A299)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15802,7 +15809,7 @@
         <v>1036</v>
       </c>
       <c r="G300" t="b">
-        <f>COUNTIF(A:A,A300)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15820,7 +15827,7 @@
         <v>1039</v>
       </c>
       <c r="G301" t="b">
-        <f>COUNTIF(A:A,A301)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15835,7 +15842,7 @@
         <v>1042</v>
       </c>
       <c r="G302" t="b">
-        <f>COUNTIF(A:A,A302)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15853,7 +15860,7 @@
         <v>195</v>
       </c>
       <c r="G303" t="b">
-        <f>COUNTIF(A:A,A303)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15871,7 +15878,7 @@
         <v>1045</v>
       </c>
       <c r="G304" t="b">
-        <f>COUNTIF(A:A,A304)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15889,7 +15896,7 @@
         <v>1049</v>
       </c>
       <c r="G305" t="b">
-        <f>COUNTIF(A:A,A305)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15904,7 +15911,7 @@
         <v>1052</v>
       </c>
       <c r="G306" t="b">
-        <f>COUNTIF(A:A,A306)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15922,7 +15929,7 @@
         <v>1055</v>
       </c>
       <c r="G307" t="b">
-        <f>COUNTIF(A:A,A307)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15940,7 +15947,7 @@
         <v>1058</v>
       </c>
       <c r="G308" t="b">
-        <f>COUNTIF(A:A,A308)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15958,7 +15965,7 @@
         <v>1061</v>
       </c>
       <c r="G309" t="b">
-        <f>COUNTIF(A:A,A309)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15973,7 +15980,7 @@
         <v>1063</v>
       </c>
       <c r="G310" t="b">
-        <f>COUNTIF(A:A,A310)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15991,7 +15998,7 @@
         <v>1066</v>
       </c>
       <c r="G311" t="b">
-        <f>COUNTIF(A:A,A311)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16006,7 +16013,7 @@
         <v>1069</v>
       </c>
       <c r="G312" t="b">
-        <f>COUNTIF(A:A,A312)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16021,7 +16028,7 @@
         <v>589</v>
       </c>
       <c r="G313" t="b">
-        <f>COUNTIF(A:A,A313)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16039,7 +16046,7 @@
         <v>1073</v>
       </c>
       <c r="G314" t="b">
-        <f>COUNTIF(A:A,A314)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16057,7 +16064,7 @@
         <v>1078</v>
       </c>
       <c r="G315" t="b">
-        <f>COUNTIF(A:A,A315)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16075,7 +16082,7 @@
         <v>1082</v>
       </c>
       <c r="G316" t="b">
-        <f>COUNTIF(A:A,A316)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16090,7 +16097,7 @@
         <v>1085</v>
       </c>
       <c r="G317" t="b">
-        <f>COUNTIF(A:A,A317)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16105,7 +16112,7 @@
         <v>1086</v>
       </c>
       <c r="G318" t="b">
-        <f>COUNTIF(A:A,A318)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16120,7 +16127,7 @@
         <v>1090</v>
       </c>
       <c r="G319" t="b">
-        <f>COUNTIF(A:A,A319)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16138,7 +16145,7 @@
         <v>1093</v>
       </c>
       <c r="G320" t="b">
-        <f>COUNTIF(A:A,A320)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16156,7 +16163,7 @@
         <v>1096</v>
       </c>
       <c r="G321" t="b">
-        <f>COUNTIF(A:A,A321)&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16171,7 +16178,7 @@
         <v>1099</v>
       </c>
       <c r="G322" t="b">
-        <f>COUNTIF(A:A,A322)&gt;1</f>
+        <f t="shared" ref="G322:G385" si="5">COUNTIF(A:A,A322)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16189,7 +16196,7 @@
         <v>1103</v>
       </c>
       <c r="G323" t="b">
-        <f>COUNTIF(A:A,A323)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16207,7 +16214,7 @@
         <v>1106</v>
       </c>
       <c r="G324" t="b">
-        <f>COUNTIF(A:A,A324)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16222,7 +16229,7 @@
         <v>1063</v>
       </c>
       <c r="G325" t="b">
-        <f>COUNTIF(A:A,A325)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16240,7 +16247,7 @@
         <v>1112</v>
       </c>
       <c r="G326" t="b">
-        <f>COUNTIF(A:A,A326)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16255,7 +16262,7 @@
         <v>1115</v>
       </c>
       <c r="G327" t="b">
-        <f>COUNTIF(A:A,A327)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16273,7 +16280,7 @@
         <v>206</v>
       </c>
       <c r="G328" t="b">
-        <f>COUNTIF(A:A,A328)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16291,7 +16298,7 @@
         <v>1118</v>
       </c>
       <c r="G329" t="b">
-        <f>COUNTIF(A:A,A329)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16309,7 +16316,7 @@
         <v>1121</v>
       </c>
       <c r="G330" t="b">
-        <f>COUNTIF(A:A,A330)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16324,7 +16331,7 @@
         <v>1124</v>
       </c>
       <c r="G331" t="b">
-        <f>COUNTIF(A:A,A331)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16339,7 +16346,7 @@
         <v>1127</v>
       </c>
       <c r="G332" t="b">
-        <f>COUNTIF(A:A,A332)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16357,7 +16364,7 @@
         <v>1130</v>
       </c>
       <c r="G333" t="b">
-        <f>COUNTIF(A:A,A333)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16375,7 +16382,7 @@
         <v>420</v>
       </c>
       <c r="G334" t="b">
-        <f>COUNTIF(A:A,A334)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16393,7 +16400,7 @@
         <v>206</v>
       </c>
       <c r="G335" t="b">
-        <f>COUNTIF(A:A,A335)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16411,7 +16418,7 @@
         <v>1137</v>
       </c>
       <c r="G336" t="b">
-        <f>COUNTIF(A:A,A336)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16429,7 +16436,7 @@
         <v>1140</v>
       </c>
       <c r="G337" t="b">
-        <f>COUNTIF(A:A,A337)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16447,7 +16454,7 @@
         <v>1143</v>
       </c>
       <c r="G338" t="b">
-        <f>COUNTIF(A:A,A338)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16462,7 +16469,7 @@
         <v>1146</v>
       </c>
       <c r="G339" t="b">
-        <f>COUNTIF(A:A,A339)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16477,7 +16484,7 @@
         <v>1149</v>
       </c>
       <c r="G340" t="b">
-        <f>COUNTIF(A:A,A340)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16495,7 +16502,7 @@
         <v>1152</v>
       </c>
       <c r="G341" t="b">
-        <f>COUNTIF(A:A,A341)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16510,7 +16517,7 @@
         <v>1155</v>
       </c>
       <c r="G342" t="b">
-        <f>COUNTIF(A:A,A342)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16528,7 +16535,7 @@
         <v>1158</v>
       </c>
       <c r="G343" t="b">
-        <f>COUNTIF(A:A,A343)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16543,7 +16550,7 @@
         <v>1161</v>
       </c>
       <c r="G344" t="b">
-        <f>COUNTIF(A:A,A344)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16561,7 +16568,7 @@
         <v>1165</v>
       </c>
       <c r="G345" t="b">
-        <f>COUNTIF(A:A,A345)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16579,7 +16586,7 @@
         <v>1168</v>
       </c>
       <c r="G346" t="b">
-        <f>COUNTIF(A:A,A346)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16594,7 +16601,7 @@
         <v>1171</v>
       </c>
       <c r="G347" t="b">
-        <f>COUNTIF(A:A,A347)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16612,7 +16619,7 @@
         <v>1174</v>
       </c>
       <c r="G348" t="b">
-        <f>COUNTIF(A:A,A348)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16627,7 +16634,7 @@
         <v>1177</v>
       </c>
       <c r="G349" t="b">
-        <f>COUNTIF(A:A,A349)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16645,7 +16652,7 @@
         <v>1180</v>
       </c>
       <c r="G350" t="b">
-        <f>COUNTIF(A:A,A350)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16660,7 +16667,7 @@
         <v>1183</v>
       </c>
       <c r="G351" t="b">
-        <f>COUNTIF(A:A,A351)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16678,7 +16685,7 @@
         <v>1187</v>
       </c>
       <c r="G352" t="b">
-        <f>COUNTIF(A:A,A352)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16696,7 +16703,7 @@
         <v>1190</v>
       </c>
       <c r="G353" t="b">
-        <f>COUNTIF(A:A,A353)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16711,7 +16718,7 @@
         <v>1193</v>
       </c>
       <c r="G354" t="b">
-        <f>COUNTIF(A:A,A354)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16729,7 +16736,7 @@
         <v>1197</v>
       </c>
       <c r="G355" t="b">
-        <f>COUNTIF(A:A,A355)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16747,7 +16754,7 @@
         <v>1200</v>
       </c>
       <c r="G356" t="b">
-        <f>COUNTIF(A:A,A356)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16765,7 +16772,7 @@
         <v>1203</v>
       </c>
       <c r="G357" t="b">
-        <f>COUNTIF(A:A,A357)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16783,7 +16790,7 @@
         <v>1207</v>
       </c>
       <c r="G358" t="b">
-        <f>COUNTIF(A:A,A358)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16801,7 +16808,7 @@
         <v>1210</v>
       </c>
       <c r="G359" t="b">
-        <f>COUNTIF(A:A,A359)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16819,7 +16826,7 @@
         <v>1213</v>
       </c>
       <c r="G360" t="b">
-        <f>COUNTIF(A:A,A360)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16834,7 +16841,7 @@
         <v>1216</v>
       </c>
       <c r="G361" t="b">
-        <f>COUNTIF(A:A,A361)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16849,7 +16856,7 @@
         <v>1218</v>
       </c>
       <c r="G362" t="b">
-        <f>COUNTIF(A:A,A362)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16867,7 +16874,7 @@
         <v>1223</v>
       </c>
       <c r="G363" t="b">
-        <f>COUNTIF(A:A,A363)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16885,7 +16892,7 @@
         <v>1227</v>
       </c>
       <c r="G364" t="b">
-        <f>COUNTIF(A:A,A364)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16903,7 +16910,7 @@
         <v>1231</v>
       </c>
       <c r="G365" t="b">
-        <f>COUNTIF(A:A,A365)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16921,7 +16928,7 @@
         <v>1234</v>
       </c>
       <c r="G366" t="b">
-        <f>COUNTIF(A:A,A366)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16939,7 +16946,7 @@
         <v>1238</v>
       </c>
       <c r="G367" t="b">
-        <f>COUNTIF(A:A,A367)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16954,7 +16961,7 @@
         <v>1241</v>
       </c>
       <c r="G368" t="b">
-        <f>COUNTIF(A:A,A368)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16972,7 +16979,7 @@
         <v>1244</v>
       </c>
       <c r="G369" t="b">
-        <f>COUNTIF(A:A,A369)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16990,7 +16997,7 @@
         <v>1247</v>
       </c>
       <c r="G370" t="b">
-        <f>COUNTIF(A:A,A370)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17005,7 +17012,7 @@
         <v>459</v>
       </c>
       <c r="G371" t="b">
-        <f>COUNTIF(A:A,A371)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17023,7 +17030,7 @@
         <v>1049</v>
       </c>
       <c r="G372" t="b">
-        <f>COUNTIF(A:A,A372)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17038,7 +17045,7 @@
         <v>1255</v>
       </c>
       <c r="G373" t="b">
-        <f>COUNTIF(A:A,A373)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17056,7 +17063,7 @@
         <v>1258</v>
       </c>
       <c r="G374" t="b">
-        <f>COUNTIF(A:A,A374)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17074,7 +17081,7 @@
         <v>1261</v>
       </c>
       <c r="G375" t="b">
-        <f>COUNTIF(A:A,A375)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17089,7 +17096,7 @@
         <v>1264</v>
       </c>
       <c r="G376" t="b">
-        <f>COUNTIF(A:A,A376)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17107,7 +17114,7 @@
         <v>1267</v>
       </c>
       <c r="G377" t="b">
-        <f>COUNTIF(A:A,A377)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17125,7 +17132,7 @@
         <v>1270</v>
       </c>
       <c r="G378" t="b">
-        <f>COUNTIF(A:A,A378)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17143,7 +17150,7 @@
         <v>1273</v>
       </c>
       <c r="G379" t="b">
-        <f>COUNTIF(A:A,A379)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17161,7 +17168,7 @@
         <v>1277</v>
       </c>
       <c r="G380" t="b">
-        <f>COUNTIF(A:A,A380)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17179,7 +17186,7 @@
         <v>1281</v>
       </c>
       <c r="G381" t="b">
-        <f>COUNTIF(A:A,A381)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17197,7 +17204,7 @@
         <v>1284</v>
       </c>
       <c r="G382" t="b">
-        <f>COUNTIF(A:A,A382)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17215,7 +17222,7 @@
         <v>1287</v>
       </c>
       <c r="G383" t="b">
-        <f>COUNTIF(A:A,A383)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17230,7 +17237,7 @@
         <v>1289</v>
       </c>
       <c r="G384" t="b">
-        <f>COUNTIF(A:A,A384)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17248,7 +17255,7 @@
         <v>1292</v>
       </c>
       <c r="G385" t="b">
-        <f>COUNTIF(A:A,A385)&gt;1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17266,7 +17273,7 @@
         <v>1075</v>
       </c>
       <c r="G386" t="b">
-        <f>COUNTIF(A:A,A386)&gt;1</f>
+        <f t="shared" ref="G386:G449" si="6">COUNTIF(A:A,A386)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -17284,7 +17291,7 @@
         <v>1296</v>
       </c>
       <c r="G387" t="b">
-        <f>COUNTIF(A:A,A387)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17302,7 +17309,7 @@
         <v>3149</v>
       </c>
       <c r="G388" t="b">
-        <f>COUNTIF(A:A,A388)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17320,7 +17327,7 @@
         <v>1301</v>
       </c>
       <c r="G389" t="b">
-        <f>COUNTIF(A:A,A389)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17335,7 +17342,7 @@
         <v>1303</v>
       </c>
       <c r="G390" t="b">
-        <f>COUNTIF(A:A,A390)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17353,7 +17360,7 @@
         <v>1306</v>
       </c>
       <c r="G391" t="b">
-        <f>COUNTIF(A:A,A391)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17368,7 +17375,7 @@
         <v>1308</v>
       </c>
       <c r="G392" t="b">
-        <f>COUNTIF(A:A,A392)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17383,7 +17390,7 @@
         <v>1311</v>
       </c>
       <c r="G393" t="b">
-        <f>COUNTIF(A:A,A393)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17401,7 +17408,7 @@
         <v>1314</v>
       </c>
       <c r="G394" t="b">
-        <f>COUNTIF(A:A,A394)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17419,7 +17426,7 @@
         <v>1317</v>
       </c>
       <c r="G395" t="b">
-        <f>COUNTIF(A:A,A395)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17437,7 +17444,7 @@
         <v>1321</v>
       </c>
       <c r="G396" t="b">
-        <f>COUNTIF(A:A,A396)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17455,7 +17462,7 @@
         <v>1324</v>
       </c>
       <c r="G397" t="b">
-        <f>COUNTIF(A:A,A397)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17470,7 +17477,7 @@
         <v>1326</v>
       </c>
       <c r="G398" t="b">
-        <f>COUNTIF(A:A,A398)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17485,7 +17492,7 @@
         <v>1329</v>
       </c>
       <c r="G399" t="b">
-        <f>COUNTIF(A:A,A399)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17503,7 +17510,7 @@
         <v>1333</v>
       </c>
       <c r="G400" t="b">
-        <f>COUNTIF(A:A,A400)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17518,7 +17525,7 @@
         <v>1335</v>
       </c>
       <c r="G401" t="b">
-        <f>COUNTIF(A:A,A401)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17536,7 +17543,7 @@
         <v>1338</v>
       </c>
       <c r="G402" t="b">
-        <f>COUNTIF(A:A,A402)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17554,7 +17561,7 @@
         <v>1341</v>
       </c>
       <c r="G403" t="b">
-        <f>COUNTIF(A:A,A403)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17572,7 +17579,7 @@
         <v>1344</v>
       </c>
       <c r="G404" t="b">
-        <f>COUNTIF(A:A,A404)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17587,7 +17594,7 @@
         <v>1347</v>
       </c>
       <c r="G405" t="b">
-        <f>COUNTIF(A:A,A405)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17602,7 +17609,7 @@
         <v>1350</v>
       </c>
       <c r="G406" t="b">
-        <f>COUNTIF(A:A,A406)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17617,7 +17624,7 @@
         <v>1351</v>
       </c>
       <c r="G407" t="b">
-        <f>COUNTIF(A:A,A407)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17635,7 +17642,7 @@
         <v>1355</v>
       </c>
       <c r="G408" t="b">
-        <f>COUNTIF(A:A,A408)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17653,7 +17660,7 @@
         <v>1358</v>
       </c>
       <c r="G409" t="b">
-        <f>COUNTIF(A:A,A409)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17668,7 +17675,7 @@
         <v>1361</v>
       </c>
       <c r="G410" t="b">
-        <f>COUNTIF(A:A,A410)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17686,7 +17693,7 @@
         <v>1364</v>
       </c>
       <c r="G411" t="b">
-        <f>COUNTIF(A:A,A411)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17704,7 +17711,7 @@
         <v>1367</v>
       </c>
       <c r="G412" t="b">
-        <f>COUNTIF(A:A,A412)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17719,7 +17726,7 @@
         <v>1370</v>
       </c>
       <c r="G413" t="b">
-        <f>COUNTIF(A:A,A413)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17737,7 +17744,7 @@
         <v>1373</v>
       </c>
       <c r="G414" t="b">
-        <f>COUNTIF(A:A,A414)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17755,7 +17762,7 @@
         <v>1376</v>
       </c>
       <c r="G415" t="b">
-        <f>COUNTIF(A:A,A415)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17773,7 +17780,7 @@
         <v>1379</v>
       </c>
       <c r="G416" t="b">
-        <f>COUNTIF(A:A,A416)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17788,7 +17795,7 @@
         <v>1382</v>
       </c>
       <c r="G417" t="b">
-        <f>COUNTIF(A:A,A417)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17803,7 +17810,7 @@
         <v>1385</v>
       </c>
       <c r="G418" t="b">
-        <f>COUNTIF(A:A,A418)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17821,7 +17828,7 @@
         <v>1389</v>
       </c>
       <c r="G419" t="b">
-        <f>COUNTIF(A:A,A419)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17839,7 +17846,7 @@
         <v>1393</v>
       </c>
       <c r="G420" t="b">
-        <f>COUNTIF(A:A,A420)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17857,7 +17864,7 @@
         <v>1397</v>
       </c>
       <c r="G421" t="b">
-        <f>COUNTIF(A:A,A421)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17875,7 +17882,7 @@
         <v>1400</v>
       </c>
       <c r="G422" t="b">
-        <f>COUNTIF(A:A,A422)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17893,7 +17900,7 @@
         <v>1404</v>
       </c>
       <c r="G423" t="b">
-        <f>COUNTIF(A:A,A423)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17908,7 +17915,7 @@
         <v>1407</v>
       </c>
       <c r="G424" t="b">
-        <f>COUNTIF(A:A,A424)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17926,7 +17933,7 @@
         <v>1410</v>
       </c>
       <c r="G425" t="b">
-        <f>COUNTIF(A:A,A425)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17941,7 +17948,7 @@
         <v>1416</v>
       </c>
       <c r="G426" t="b">
-        <f>COUNTIF(A:A,A426)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17959,7 +17966,7 @@
         <v>1413</v>
       </c>
       <c r="G427" t="b">
-        <f>COUNTIF(A:A,A427)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17977,7 +17984,7 @@
         <v>1419</v>
       </c>
       <c r="G428" t="b">
-        <f>COUNTIF(A:A,A428)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17992,7 +17999,7 @@
         <v>1422</v>
       </c>
       <c r="G429" t="b">
-        <f>COUNTIF(A:A,A429)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18010,7 +18017,7 @@
         <v>1425</v>
       </c>
       <c r="G430" t="b">
-        <f>COUNTIF(A:A,A430)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18025,7 +18032,7 @@
         <v>1428</v>
       </c>
       <c r="G431" t="b">
-        <f>COUNTIF(A:A,A431)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18043,7 +18050,7 @@
         <v>1431</v>
       </c>
       <c r="G432" t="b">
-        <f>COUNTIF(A:A,A432)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18061,7 +18068,7 @@
         <v>1435</v>
       </c>
       <c r="G433" t="b">
-        <f>COUNTIF(A:A,A433)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18079,7 +18086,7 @@
         <v>1438</v>
       </c>
       <c r="G434" t="b">
-        <f>COUNTIF(A:A,A434)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18097,7 +18104,7 @@
         <v>1441</v>
       </c>
       <c r="G435" t="b">
-        <f>COUNTIF(A:A,A435)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18115,7 +18122,7 @@
         <v>1444</v>
       </c>
       <c r="G436" t="b">
-        <f>COUNTIF(A:A,A436)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18133,7 +18140,7 @@
         <v>1448</v>
       </c>
       <c r="G437" t="b">
-        <f>COUNTIF(A:A,A437)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18148,7 +18155,7 @@
         <v>1451</v>
       </c>
       <c r="G438" t="b">
-        <f>COUNTIF(A:A,A438)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18163,7 +18170,7 @@
         <v>1453</v>
       </c>
       <c r="G439" t="b">
-        <f>COUNTIF(A:A,A439)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18178,7 +18185,7 @@
         <v>1456</v>
       </c>
       <c r="G440" t="b">
-        <f>COUNTIF(A:A,A440)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18196,7 +18203,7 @@
         <v>1459</v>
       </c>
       <c r="G441" t="b">
-        <f>COUNTIF(A:A,A441)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18211,7 +18218,7 @@
         <v>1462</v>
       </c>
       <c r="G442" t="b">
-        <f>COUNTIF(A:A,A442)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18226,7 +18233,7 @@
         <v>1464</v>
       </c>
       <c r="G443" t="b">
-        <f>COUNTIF(A:A,A443)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18241,7 +18248,7 @@
         <v>1466</v>
       </c>
       <c r="G444" t="b">
-        <f>COUNTIF(A:A,A444)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18256,7 +18263,7 @@
         <v>1469</v>
       </c>
       <c r="G445" t="b">
-        <f>COUNTIF(A:A,A445)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18274,7 +18281,7 @@
         <v>1472</v>
       </c>
       <c r="G446" t="b">
-        <f>COUNTIF(A:A,A446)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18292,7 +18299,7 @@
         <v>1476</v>
       </c>
       <c r="G447" t="b">
-        <f>COUNTIF(A:A,A447)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18307,7 +18314,7 @@
         <v>1479</v>
       </c>
       <c r="G448" t="b">
-        <f>COUNTIF(A:A,A448)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18325,7 +18332,7 @@
         <v>1482</v>
       </c>
       <c r="G449" t="b">
-        <f>COUNTIF(A:A,A449)&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18340,7 +18347,7 @@
         <v>1485</v>
       </c>
       <c r="G450" t="b">
-        <f>COUNTIF(A:A,A450)&gt;1</f>
+        <f t="shared" ref="G450:G513" si="7">COUNTIF(A:A,A450)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -18358,7 +18365,7 @@
         <v>1488</v>
       </c>
       <c r="G451" t="b">
-        <f>COUNTIF(A:A,A451)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18373,7 +18380,7 @@
         <v>1491</v>
       </c>
       <c r="G452" t="b">
-        <f>COUNTIF(A:A,A452)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18391,7 +18398,7 @@
         <v>1494</v>
       </c>
       <c r="G453" t="b">
-        <f>COUNTIF(A:A,A453)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18409,7 +18416,7 @@
         <v>1498</v>
       </c>
       <c r="G454" t="b">
-        <f>COUNTIF(A:A,A454)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18427,7 +18434,7 @@
         <v>1501</v>
       </c>
       <c r="G455" t="b">
-        <f>COUNTIF(A:A,A455)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18442,7 +18449,7 @@
         <v>1504</v>
       </c>
       <c r="G456" t="b">
-        <f>COUNTIF(A:A,A456)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18457,7 +18464,7 @@
         <v>1507</v>
       </c>
       <c r="G457" t="b">
-        <f>COUNTIF(A:A,A457)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18475,7 +18482,7 @@
         <v>1510</v>
       </c>
       <c r="G458" t="b">
-        <f>COUNTIF(A:A,A458)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18493,7 +18500,7 @@
         <v>1514</v>
       </c>
       <c r="G459" t="b">
-        <f>COUNTIF(A:A,A459)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18511,7 +18518,7 @@
         <v>1518</v>
       </c>
       <c r="G460" t="b">
-        <f>COUNTIF(A:A,A460)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18529,7 +18536,7 @@
         <v>1521</v>
       </c>
       <c r="G461" t="b">
-        <f>COUNTIF(A:A,A461)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18547,7 +18554,7 @@
         <v>1524</v>
       </c>
       <c r="G462" t="b">
-        <f>COUNTIF(A:A,A462)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18565,7 +18572,7 @@
         <v>1527</v>
       </c>
       <c r="G463" t="b">
-        <f>COUNTIF(A:A,A463)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18583,7 +18590,7 @@
         <v>1530</v>
       </c>
       <c r="G464" t="b">
-        <f>COUNTIF(A:A,A464)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18598,7 +18605,7 @@
         <v>1533</v>
       </c>
       <c r="G465" t="b">
-        <f>COUNTIF(A:A,A465)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18616,7 +18623,7 @@
         <v>309</v>
       </c>
       <c r="G466" t="b">
-        <f>COUNTIF(A:A,A466)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18634,7 +18641,7 @@
         <v>1539</v>
       </c>
       <c r="G467" t="b">
-        <f>COUNTIF(A:A,A467)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18649,7 +18656,7 @@
         <v>1542</v>
       </c>
       <c r="G468" t="b">
-        <f>COUNTIF(A:A,A468)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18667,7 +18674,7 @@
         <v>1546</v>
       </c>
       <c r="G469" t="b">
-        <f>COUNTIF(A:A,A469)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18685,7 +18692,7 @@
         <v>1550</v>
       </c>
       <c r="G470" t="b">
-        <f>COUNTIF(A:A,A470)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18703,7 +18710,7 @@
         <v>1553</v>
       </c>
       <c r="G471" t="b">
-        <f>COUNTIF(A:A,A471)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18721,7 +18728,7 @@
         <v>1557</v>
       </c>
       <c r="G472" t="b">
-        <f>COUNTIF(A:A,A472)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18736,7 +18743,7 @@
         <v>1559</v>
       </c>
       <c r="G473" t="b">
-        <f>COUNTIF(A:A,A473)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18754,7 +18761,7 @@
         <v>1562</v>
       </c>
       <c r="G474" t="b">
-        <f>COUNTIF(A:A,A474)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18772,7 +18779,7 @@
         <v>1565</v>
       </c>
       <c r="G475" t="b">
-        <f>COUNTIF(A:A,A475)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18787,7 +18794,7 @@
         <v>1568</v>
       </c>
       <c r="G476" t="b">
-        <f>COUNTIF(A:A,A476)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18802,7 +18809,7 @@
         <v>1571</v>
       </c>
       <c r="G477" t="b">
-        <f>COUNTIF(A:A,A477)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18817,7 +18824,7 @@
         <v>1574</v>
       </c>
       <c r="G478" t="b">
-        <f>COUNTIF(A:A,A478)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18835,7 +18842,7 @@
         <v>1577</v>
       </c>
       <c r="G479" t="b">
-        <f>COUNTIF(A:A,A479)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18853,7 +18860,7 @@
         <v>1581</v>
       </c>
       <c r="G480" t="b">
-        <f>COUNTIF(A:A,A480)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18871,7 +18878,7 @@
         <v>1584</v>
       </c>
       <c r="G481" t="b">
-        <f>COUNTIF(A:A,A481)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18886,7 +18893,7 @@
         <v>1587</v>
       </c>
       <c r="G482" t="b">
-        <f>COUNTIF(A:A,A482)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18904,7 +18911,7 @@
         <v>1590</v>
       </c>
       <c r="G483" t="b">
-        <f>COUNTIF(A:A,A483)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18919,7 +18926,7 @@
         <v>1593</v>
       </c>
       <c r="G484" t="b">
-        <f>COUNTIF(A:A,A484)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18934,7 +18941,7 @@
         <v>1596</v>
       </c>
       <c r="G485" t="b">
-        <f>COUNTIF(A:A,A485)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18952,7 +18959,7 @@
         <v>1599</v>
       </c>
       <c r="G486" t="b">
-        <f>COUNTIF(A:A,A486)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18970,7 +18977,7 @@
         <v>1602</v>
       </c>
       <c r="G487" t="b">
-        <f>COUNTIF(A:A,A487)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -18988,7 +18995,7 @@
         <v>1605</v>
       </c>
       <c r="G488" t="b">
-        <f>COUNTIF(A:A,A488)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19003,7 +19010,7 @@
         <v>1607</v>
       </c>
       <c r="G489" t="b">
-        <f>COUNTIF(A:A,A489)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19018,7 +19025,7 @@
         <v>1610</v>
       </c>
       <c r="G490" t="b">
-        <f>COUNTIF(A:A,A490)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19033,7 +19040,7 @@
         <v>1613</v>
       </c>
       <c r="G491" t="b">
-        <f>COUNTIF(A:A,A491)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19051,7 +19058,7 @@
         <v>1616</v>
       </c>
       <c r="G492" t="b">
-        <f>COUNTIF(A:A,A492)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19069,7 +19076,7 @@
         <v>1619</v>
       </c>
       <c r="G493" t="b">
-        <f>COUNTIF(A:A,A493)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19084,7 +19091,7 @@
         <v>1622</v>
       </c>
       <c r="G494" t="b">
-        <f>COUNTIF(A:A,A494)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19102,7 +19109,7 @@
         <v>1625</v>
       </c>
       <c r="G495" t="b">
-        <f>COUNTIF(A:A,A495)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19120,7 +19127,7 @@
         <v>1628</v>
       </c>
       <c r="G496" t="b">
-        <f>COUNTIF(A:A,A496)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19138,7 +19145,7 @@
         <v>1631</v>
       </c>
       <c r="G497" t="b">
-        <f>COUNTIF(A:A,A497)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19156,7 +19163,7 @@
         <v>1634</v>
       </c>
       <c r="G498" t="b">
-        <f>COUNTIF(A:A,A498)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19174,7 +19181,7 @@
         <v>1637</v>
       </c>
       <c r="G499" t="b">
-        <f>COUNTIF(A:A,A499)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19192,7 +19199,7 @@
         <v>1640</v>
       </c>
       <c r="G500" t="b">
-        <f>COUNTIF(A:A,A500)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19210,7 +19217,7 @@
         <v>1643</v>
       </c>
       <c r="G501" t="b">
-        <f>COUNTIF(A:A,A501)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19228,7 +19235,7 @@
         <v>1647</v>
       </c>
       <c r="G502" t="b">
-        <f>COUNTIF(A:A,A502)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19243,7 +19250,7 @@
         <v>1649</v>
       </c>
       <c r="G503" t="b">
-        <f>COUNTIF(A:A,A503)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19261,7 +19268,7 @@
         <v>1653</v>
       </c>
       <c r="G504" t="b">
-        <f>COUNTIF(A:A,A504)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19276,7 +19283,7 @@
         <v>1656</v>
       </c>
       <c r="G505" t="b">
-        <f>COUNTIF(A:A,A505)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19291,7 +19298,7 @@
         <v>1659</v>
       </c>
       <c r="G506" t="b">
-        <f>COUNTIF(A:A,A506)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19306,7 +19313,7 @@
         <v>1661</v>
       </c>
       <c r="G507" t="b">
-        <f>COUNTIF(A:A,A507)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19324,7 +19331,7 @@
         <v>1664</v>
       </c>
       <c r="G508" t="b">
-        <f>COUNTIF(A:A,A508)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19345,7 +19352,7 @@
         <v>1669</v>
       </c>
       <c r="G509" t="b">
-        <f>COUNTIF(A:A,A509)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19360,7 +19367,7 @@
         <v>1672</v>
       </c>
       <c r="G510" t="b">
-        <f>COUNTIF(A:A,A510)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19378,7 +19385,7 @@
         <v>1675</v>
       </c>
       <c r="G511" t="b">
-        <f>COUNTIF(A:A,A511)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19393,7 +19400,7 @@
         <v>1677</v>
       </c>
       <c r="G512" t="b">
-        <f>COUNTIF(A:A,A512)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19411,7 +19418,7 @@
         <v>1680</v>
       </c>
       <c r="G513" t="b">
-        <f>COUNTIF(A:A,A513)&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19429,7 +19436,7 @@
         <v>1684</v>
       </c>
       <c r="G514" t="b">
-        <f>COUNTIF(A:A,A514)&gt;1</f>
+        <f t="shared" ref="G514:G577" si="8">COUNTIF(A:A,A514)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -19447,7 +19454,7 @@
         <v>1686</v>
       </c>
       <c r="G515" t="b">
-        <f>COUNTIF(A:A,A515)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19462,7 +19469,7 @@
         <v>1689</v>
       </c>
       <c r="G516" t="b">
-        <f>COUNTIF(A:A,A516)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19477,7 +19484,7 @@
         <v>1692</v>
       </c>
       <c r="G517" t="b">
-        <f>COUNTIF(A:A,A517)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19495,7 +19502,7 @@
         <v>1695</v>
       </c>
       <c r="G518" t="b">
-        <f>COUNTIF(A:A,A518)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19513,7 +19520,7 @@
         <v>1698</v>
       </c>
       <c r="G519" t="b">
-        <f>COUNTIF(A:A,A519)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19531,7 +19538,7 @@
         <v>1702</v>
       </c>
       <c r="G520" t="b">
-        <f>COUNTIF(A:A,A520)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19549,7 +19556,7 @@
         <v>1705</v>
       </c>
       <c r="G521" t="b">
-        <f>COUNTIF(A:A,A521)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19567,7 +19574,7 @@
         <v>1709</v>
       </c>
       <c r="G522" t="b">
-        <f>COUNTIF(A:A,A522)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19582,7 +19589,7 @@
         <v>1711</v>
       </c>
       <c r="G523" t="b">
-        <f>COUNTIF(A:A,A523)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19600,7 +19607,7 @@
         <v>1715</v>
       </c>
       <c r="G524" t="b">
-        <f>COUNTIF(A:A,A524)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19618,7 +19625,7 @@
         <v>1718</v>
       </c>
       <c r="G525" t="b">
-        <f>COUNTIF(A:A,A525)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19636,7 +19643,7 @@
         <v>1722</v>
       </c>
       <c r="G526" t="b">
-        <f>COUNTIF(A:A,A526)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19654,7 +19661,7 @@
         <v>1726</v>
       </c>
       <c r="G527" t="b">
-        <f>COUNTIF(A:A,A527)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19672,7 +19679,7 @@
         <v>1729</v>
       </c>
       <c r="G528" t="b">
-        <f>COUNTIF(A:A,A528)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19687,7 +19694,7 @@
         <v>1732</v>
       </c>
       <c r="G529" t="b">
-        <f>COUNTIF(A:A,A529)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19705,7 +19712,7 @@
         <v>1735</v>
       </c>
       <c r="G530" t="b">
-        <f>COUNTIF(A:A,A530)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19723,7 +19730,7 @@
         <v>1737</v>
       </c>
       <c r="G531" t="b">
-        <f>COUNTIF(A:A,A531)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19738,7 +19745,7 @@
         <v>1739</v>
       </c>
       <c r="G532" t="b">
-        <f>COUNTIF(A:A,A532)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19756,7 +19763,7 @@
         <v>1743</v>
       </c>
       <c r="G533" t="b">
-        <f>COUNTIF(A:A,A533)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19774,7 +19781,7 @@
         <v>1747</v>
       </c>
       <c r="G534" t="b">
-        <f>COUNTIF(A:A,A534)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19792,7 +19799,7 @@
         <v>1750</v>
       </c>
       <c r="G535" t="b">
-        <f>COUNTIF(A:A,A535)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19810,7 +19817,7 @@
         <v>1753</v>
       </c>
       <c r="G536" t="b">
-        <f>COUNTIF(A:A,A536)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19825,7 +19832,7 @@
         <v>1255</v>
       </c>
       <c r="G537" t="b">
-        <f>COUNTIF(A:A,A537)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19840,7 +19847,7 @@
         <v>1757</v>
       </c>
       <c r="G538" t="b">
-        <f>COUNTIF(A:A,A538)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19858,7 +19865,7 @@
         <v>1761</v>
       </c>
       <c r="G539" t="b">
-        <f>COUNTIF(A:A,A539)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19876,7 +19883,7 @@
         <v>1765</v>
       </c>
       <c r="G540" t="b">
-        <f>COUNTIF(A:A,A540)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19894,7 +19901,7 @@
         <v>1768</v>
       </c>
       <c r="G541" t="b">
-        <f>COUNTIF(A:A,A541)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19912,7 +19919,7 @@
         <v>1771</v>
       </c>
       <c r="G542" t="b">
-        <f>COUNTIF(A:A,A542)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19930,7 +19937,7 @@
         <v>1774</v>
       </c>
       <c r="G543" t="b">
-        <f>COUNTIF(A:A,A543)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19948,7 +19955,7 @@
         <v>1777</v>
       </c>
       <c r="G544" t="b">
-        <f>COUNTIF(A:A,A544)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19960,13 +19967,13 @@
         <v>1779</v>
       </c>
       <c r="D545" t="s">
-        <v>3273</v>
+        <v>3439</v>
       </c>
       <c r="E545" t="s">
         <v>1780</v>
       </c>
       <c r="G545" t="b">
-        <f>COUNTIF(A:A,A545)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19984,7 +19991,7 @@
         <v>1784</v>
       </c>
       <c r="G546" t="b">
-        <f>COUNTIF(A:A,A546)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20002,7 +20009,7 @@
         <v>1787</v>
       </c>
       <c r="G547" t="b">
-        <f>COUNTIF(A:A,A547)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20017,7 +20024,7 @@
         <v>1789</v>
       </c>
       <c r="G548" t="b">
-        <f>COUNTIF(A:A,A548)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20035,7 +20042,7 @@
         <v>1793</v>
       </c>
       <c r="G549" t="b">
-        <f>COUNTIF(A:A,A549)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20053,7 +20060,7 @@
         <v>1796</v>
       </c>
       <c r="G550" t="b">
-        <f>COUNTIF(A:A,A550)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20071,7 +20078,7 @@
         <v>1799</v>
       </c>
       <c r="G551" t="b">
-        <f>COUNTIF(A:A,A551)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20086,7 +20093,7 @@
         <v>1801</v>
       </c>
       <c r="G552" t="b">
-        <f>COUNTIF(A:A,A552)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20101,7 +20108,7 @@
         <v>1804</v>
       </c>
       <c r="G553" t="b">
-        <f>COUNTIF(A:A,A553)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20113,13 +20120,13 @@
         <v>1806</v>
       </c>
       <c r="D554" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="E554" t="s">
         <v>1807</v>
       </c>
       <c r="G554" t="b">
-        <f>COUNTIF(A:A,A554)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20134,7 +20141,7 @@
         <v>1808</v>
       </c>
       <c r="G555" t="b">
-        <f>COUNTIF(A:A,A555)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20152,7 +20159,7 @@
         <v>1812</v>
       </c>
       <c r="G556" t="b">
-        <f>COUNTIF(A:A,A556)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20170,7 +20177,7 @@
         <v>1815</v>
       </c>
       <c r="G557" t="b">
-        <f>COUNTIF(A:A,A557)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20185,7 +20192,7 @@
         <v>1818</v>
       </c>
       <c r="G558" t="b">
-        <f>COUNTIF(A:A,A558)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20197,13 +20204,13 @@
         <v>1820</v>
       </c>
       <c r="D559" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="E559" t="s">
         <v>1821</v>
       </c>
       <c r="G559" t="b">
-        <f>COUNTIF(A:A,A559)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20218,7 +20225,7 @@
         <v>1824</v>
       </c>
       <c r="G560" t="b">
-        <f>COUNTIF(A:A,A560)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20233,7 +20240,7 @@
         <v>1826</v>
       </c>
       <c r="G561" t="b">
-        <f>COUNTIF(A:A,A561)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20251,7 +20258,7 @@
         <v>1829</v>
       </c>
       <c r="G562" t="b">
-        <f>COUNTIF(A:A,A562)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20266,7 +20273,7 @@
         <v>1832</v>
       </c>
       <c r="G563" t="b">
-        <f>COUNTIF(A:A,A563)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20275,13 +20282,13 @@
         <v>3045</v>
       </c>
       <c r="D564" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="E564" t="s">
         <v>1833</v>
       </c>
       <c r="G564" t="b">
-        <f>COUNTIF(A:A,A564)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20296,7 +20303,7 @@
         <v>1836</v>
       </c>
       <c r="G565" t="b">
-        <f>COUNTIF(A:A,A565)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20311,7 +20318,7 @@
         <v>1839</v>
       </c>
       <c r="G566" t="b">
-        <f>COUNTIF(A:A,A566)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20323,13 +20330,13 @@
         <v>1841</v>
       </c>
       <c r="D567" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="E567" t="s">
         <v>1842</v>
       </c>
       <c r="G567" t="b">
-        <f>COUNTIF(A:A,A567)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20347,7 +20354,7 @@
         <v>1845</v>
       </c>
       <c r="G568" t="b">
-        <f>COUNTIF(A:A,A568)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20365,7 +20372,7 @@
         <v>1848</v>
       </c>
       <c r="G569" t="b">
-        <f>COUNTIF(A:A,A569)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20377,13 +20384,13 @@
         <v>1850</v>
       </c>
       <c r="D570" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="E570" t="s">
         <v>1851</v>
       </c>
       <c r="G570" t="b">
-        <f>COUNTIF(A:A,A570)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20395,13 +20402,13 @@
         <v>1853</v>
       </c>
       <c r="D571" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="E571" t="s">
         <v>1854</v>
       </c>
       <c r="G571" t="b">
-        <f>COUNTIF(A:A,A571)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20410,13 +20417,13 @@
         <v>1858</v>
       </c>
       <c r="D572" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="E572" t="s">
         <v>1859</v>
       </c>
       <c r="G572" t="b">
-        <f>COUNTIF(A:A,A572)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20434,7 +20441,7 @@
         <v>1863</v>
       </c>
       <c r="G573" t="b">
-        <f>COUNTIF(A:A,A573)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20449,7 +20456,7 @@
         <v>1866</v>
       </c>
       <c r="G574" t="b">
-        <f>COUNTIF(A:A,A574)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20467,7 +20474,7 @@
         <v>1869</v>
       </c>
       <c r="G575" t="b">
-        <f>COUNTIF(A:A,A575)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20485,7 +20492,7 @@
         <v>1872</v>
       </c>
       <c r="G576" t="b">
-        <f>COUNTIF(A:A,A576)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20497,13 +20504,13 @@
         <v>1874</v>
       </c>
       <c r="D577" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="E577" t="s">
         <v>1875</v>
       </c>
       <c r="G577" t="b">
-        <f>COUNTIF(A:A,A577)&gt;1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20521,7 +20528,7 @@
         <v>1878</v>
       </c>
       <c r="G578" t="b">
-        <f>COUNTIF(A:A,A578)&gt;1</f>
+        <f t="shared" ref="G578:G641" si="9">COUNTIF(A:A,A578)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -20536,7 +20543,7 @@
         <v>1881</v>
       </c>
       <c r="G579" t="b">
-        <f>COUNTIF(A:A,A579)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20551,7 +20558,7 @@
         <v>1884</v>
       </c>
       <c r="G580" t="b">
-        <f>COUNTIF(A:A,A580)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20566,7 +20573,7 @@
         <v>1887</v>
       </c>
       <c r="G581" t="b">
-        <f>COUNTIF(A:A,A581)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20584,7 +20591,7 @@
         <v>1890</v>
       </c>
       <c r="G582" t="b">
-        <f>COUNTIF(A:A,A582)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20602,7 +20609,7 @@
         <v>1894</v>
       </c>
       <c r="G583" t="b">
-        <f>COUNTIF(A:A,A583)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20620,7 +20627,7 @@
         <v>1897</v>
       </c>
       <c r="G584" t="b">
-        <f>COUNTIF(A:A,A584)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20635,7 +20642,7 @@
         <v>1899</v>
       </c>
       <c r="G585" t="b">
-        <f>COUNTIF(A:A,A585)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20647,13 +20654,13 @@
         <v>1901</v>
       </c>
       <c r="D586" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="E586" t="s">
         <v>1902</v>
       </c>
       <c r="G586" t="b">
-        <f>COUNTIF(A:A,A586)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20671,7 +20678,7 @@
         <v>1906</v>
       </c>
       <c r="G587" t="b">
-        <f>COUNTIF(A:A,A587)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20689,7 +20696,7 @@
         <v>577</v>
       </c>
       <c r="G588" t="b">
-        <f>COUNTIF(A:A,A588)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20704,7 +20711,7 @@
         <v>1909</v>
       </c>
       <c r="G589" t="b">
-        <f>COUNTIF(A:A,A589)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20722,7 +20729,7 @@
         <v>1913</v>
       </c>
       <c r="G590" t="b">
-        <f>COUNTIF(A:A,A590)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20740,7 +20747,7 @@
         <v>1917</v>
       </c>
       <c r="G591" t="b">
-        <f>COUNTIF(A:A,A591)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20749,13 +20756,13 @@
         <v>1918</v>
       </c>
       <c r="D592" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E592" t="s">
         <v>3284</v>
       </c>
-      <c r="E592" t="s">
-        <v>3285</v>
-      </c>
       <c r="G592" t="b">
-        <f>COUNTIF(A:A,A592)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20767,13 +20774,13 @@
         <v>1920</v>
       </c>
       <c r="D593" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="E593" t="s">
         <v>1921</v>
       </c>
       <c r="G593" t="b">
-        <f>COUNTIF(A:A,A593)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20791,7 +20798,7 @@
         <v>1924</v>
       </c>
       <c r="G594" t="b">
-        <f>COUNTIF(A:A,A594)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20809,7 +20816,7 @@
         <v>1927</v>
       </c>
       <c r="G595" t="b">
-        <f>COUNTIF(A:A,A595)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20827,7 +20834,7 @@
         <v>1930</v>
       </c>
       <c r="G596" t="b">
-        <f>COUNTIF(A:A,A596)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20845,7 +20852,7 @@
         <v>1934</v>
       </c>
       <c r="G597" t="b">
-        <f>COUNTIF(A:A,A597)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20857,13 +20864,13 @@
         <v>1936</v>
       </c>
       <c r="D598" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="E598" t="s">
         <v>1937</v>
       </c>
       <c r="G598" t="b">
-        <f>COUNTIF(A:A,A598)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20881,7 +20888,7 @@
         <v>1940</v>
       </c>
       <c r="G599" t="b">
-        <f>COUNTIF(A:A,A599)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20896,7 +20903,7 @@
         <v>1943</v>
       </c>
       <c r="G600" t="b">
-        <f>COUNTIF(A:A,A600)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20914,7 +20921,7 @@
         <v>1947</v>
       </c>
       <c r="G601" t="b">
-        <f>COUNTIF(A:A,A601)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20929,7 +20936,7 @@
         <v>1950</v>
       </c>
       <c r="G602" t="b">
-        <f>COUNTIF(A:A,A602)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20941,13 +20948,13 @@
         <v>1952</v>
       </c>
       <c r="D603" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="E603" t="s">
         <v>1953</v>
       </c>
       <c r="G603" t="b">
-        <f>COUNTIF(A:A,A603)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20962,7 +20969,7 @@
         <v>23</v>
       </c>
       <c r="G604" t="b">
-        <f>COUNTIF(A:A,A604)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20980,7 +20987,7 @@
         <v>1959</v>
       </c>
       <c r="G605" t="b">
-        <f>COUNTIF(A:A,A605)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -20998,7 +21005,7 @@
         <v>1963</v>
       </c>
       <c r="G606" t="b">
-        <f>COUNTIF(A:A,A606)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21016,7 +21023,7 @@
         <v>1966</v>
       </c>
       <c r="G607" t="b">
-        <f>COUNTIF(A:A,A607)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21028,13 +21035,13 @@
         <v>1968</v>
       </c>
       <c r="D608" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="E608" t="s">
         <v>1969</v>
       </c>
       <c r="G608" t="b">
-        <f>COUNTIF(A:A,A608)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21049,7 +21056,7 @@
         <v>1687</v>
       </c>
       <c r="G609" t="b">
-        <f>COUNTIF(A:A,A609)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21067,7 +21074,7 @@
         <v>1974</v>
       </c>
       <c r="G610" t="b">
-        <f>COUNTIF(A:A,A610)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21085,7 +21092,7 @@
         <v>73</v>
       </c>
       <c r="G611" t="b">
-        <f>COUNTIF(A:A,A611)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21103,7 +21110,7 @@
         <v>1978</v>
       </c>
       <c r="G612" t="b">
-        <f>COUNTIF(A:A,A612)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21121,7 +21128,7 @@
         <v>640</v>
       </c>
       <c r="G613" t="b">
-        <f>COUNTIF(A:A,A613)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21139,7 +21146,7 @@
         <v>219</v>
       </c>
       <c r="G614" t="b">
-        <f>COUNTIF(A:A,A614)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21154,7 +21161,7 @@
         <v>1981</v>
       </c>
       <c r="G615" t="b">
-        <f>COUNTIF(A:A,A615)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21172,7 +21179,7 @@
         <v>1984</v>
       </c>
       <c r="G616" t="b">
-        <f>COUNTIF(A:A,A616)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21190,7 +21197,7 @@
         <v>1987</v>
       </c>
       <c r="G617" t="b">
-        <f>COUNTIF(A:A,A617)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21208,7 +21215,7 @@
         <v>1990</v>
       </c>
       <c r="G618" t="b">
-        <f>COUNTIF(A:A,A618)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21223,7 +21230,7 @@
         <v>1993</v>
       </c>
       <c r="G619" t="b">
-        <f>COUNTIF(A:A,A619)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21235,13 +21242,13 @@
         <v>1995</v>
       </c>
       <c r="D620" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="E620" t="s">
         <v>1996</v>
       </c>
       <c r="G620" t="b">
-        <f>COUNTIF(A:A,A620)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21259,7 +21266,7 @@
         <v>2000</v>
       </c>
       <c r="G621" t="b">
-        <f>COUNTIF(A:A,A621)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21274,7 +21281,7 @@
         <v>2003</v>
       </c>
       <c r="G622" t="b">
-        <f>COUNTIF(A:A,A622)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21292,7 +21299,7 @@
         <v>1393</v>
       </c>
       <c r="G623" t="b">
-        <f>COUNTIF(A:A,A623)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21310,7 +21317,7 @@
         <v>2009</v>
       </c>
       <c r="G624" t="b">
-        <f>COUNTIF(A:A,A624)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21331,7 +21338,7 @@
         <v>2012</v>
       </c>
       <c r="G625" t="b">
-        <f>COUNTIF(A:A,A625)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21346,7 +21353,7 @@
         <v>2015</v>
       </c>
       <c r="G626" t="b">
-        <f>COUNTIF(A:A,A626)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21364,7 +21371,7 @@
         <v>2018</v>
       </c>
       <c r="G627" t="b">
-        <f>COUNTIF(A:A,A627)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21382,7 +21389,7 @@
         <v>2021</v>
       </c>
       <c r="G628" t="b">
-        <f>COUNTIF(A:A,A628)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21400,7 +21407,7 @@
         <v>2024</v>
       </c>
       <c r="G629" t="b">
-        <f>COUNTIF(A:A,A629)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21418,7 +21425,7 @@
         <v>2027</v>
       </c>
       <c r="G630" t="b">
-        <f>COUNTIF(A:A,A630)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21436,7 +21443,7 @@
         <v>2031</v>
       </c>
       <c r="G631" t="b">
-        <f>COUNTIF(A:A,A631)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21454,7 +21461,7 @@
         <v>2034</v>
       </c>
       <c r="G632" t="b">
-        <f>COUNTIF(A:A,A632)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21466,13 +21473,13 @@
         <v>2036</v>
       </c>
       <c r="D633" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="E633" t="s">
         <v>2037</v>
       </c>
       <c r="G633" t="b">
-        <f>COUNTIF(A:A,A633)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21490,7 +21497,7 @@
         <v>2041</v>
       </c>
       <c r="G634" t="b">
-        <f>COUNTIF(A:A,A634)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21508,7 +21515,7 @@
         <v>2042</v>
       </c>
       <c r="G635" t="b">
-        <f>COUNTIF(A:A,A635)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21520,13 +21527,13 @@
         <v>2044</v>
       </c>
       <c r="D636" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="E636" t="s">
         <v>2045</v>
       </c>
       <c r="G636" t="b">
-        <f>COUNTIF(A:A,A636)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21538,13 +21545,13 @@
         <v>2047</v>
       </c>
       <c r="D637" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="E637" t="s">
         <v>2048</v>
       </c>
       <c r="G637" t="b">
-        <f>COUNTIF(A:A,A637)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21559,7 +21566,7 @@
         <v>2049</v>
       </c>
       <c r="G638" t="b">
-        <f>COUNTIF(A:A,A638)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21574,7 +21581,7 @@
         <v>2050</v>
       </c>
       <c r="G639" t="b">
-        <f>COUNTIF(A:A,A639)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21586,13 +21593,13 @@
         <v>2052</v>
       </c>
       <c r="D640" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="E640" t="s">
         <v>2053</v>
       </c>
       <c r="G640" t="b">
-        <f>COUNTIF(A:A,A640)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21610,7 +21617,7 @@
         <v>2057</v>
       </c>
       <c r="G641" t="b">
-        <f>COUNTIF(A:A,A641)&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21622,13 +21629,13 @@
         <v>2059</v>
       </c>
       <c r="D642" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="E642" t="s">
         <v>2060</v>
       </c>
       <c r="G642" t="b">
-        <f>COUNTIF(A:A,A642)&gt;1</f>
+        <f t="shared" ref="G642:G705" si="10">COUNTIF(A:A,A642)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -21646,7 +21653,7 @@
         <v>2064</v>
       </c>
       <c r="G643" t="b">
-        <f>COUNTIF(A:A,A643)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21661,7 +21668,7 @@
         <v>2067</v>
       </c>
       <c r="G644" t="b">
-        <f>COUNTIF(A:A,A644)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21673,13 +21680,13 @@
         <v>2069</v>
       </c>
       <c r="D645" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="E645" t="s">
         <v>2070</v>
       </c>
       <c r="G645" t="b">
-        <f>COUNTIF(A:A,A645)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21694,7 +21701,7 @@
         <v>2073</v>
       </c>
       <c r="G646" t="b">
-        <f>COUNTIF(A:A,A646)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21712,7 +21719,7 @@
         <v>2076</v>
       </c>
       <c r="G647" t="b">
-        <f>COUNTIF(A:A,A647)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21730,7 +21737,7 @@
         <v>2080</v>
       </c>
       <c r="G648" t="b">
-        <f>COUNTIF(A:A,A648)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21742,13 +21749,13 @@
         <v>2082</v>
       </c>
       <c r="D649" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="E649" t="s">
         <v>2083</v>
       </c>
       <c r="G649" t="b">
-        <f>COUNTIF(A:A,A649)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21766,7 +21773,7 @@
         <v>2087</v>
       </c>
       <c r="G650" t="b">
-        <f>COUNTIF(A:A,A650)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21781,7 +21788,7 @@
         <v>2090</v>
       </c>
       <c r="G651" t="b">
-        <f>COUNTIF(A:A,A651)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21799,7 +21806,7 @@
         <v>2093</v>
       </c>
       <c r="G652" t="b">
-        <f>COUNTIF(A:A,A652)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21811,13 +21818,13 @@
         <v>2095</v>
       </c>
       <c r="D653" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="E653" t="s">
         <v>2096</v>
       </c>
       <c r="G653" t="b">
-        <f>COUNTIF(A:A,A653)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21835,7 +21842,7 @@
         <v>50</v>
       </c>
       <c r="G654" t="b">
-        <f>COUNTIF(A:A,A654)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21853,7 +21860,7 @@
         <v>2099</v>
       </c>
       <c r="G655" t="b">
-        <f>COUNTIF(A:A,A655)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21868,7 +21875,7 @@
         <v>824</v>
       </c>
       <c r="G656" t="b">
-        <f>COUNTIF(A:A,A656)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21880,13 +21887,13 @@
         <v>2101</v>
       </c>
       <c r="D657" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="E657" t="s">
         <v>2102</v>
       </c>
       <c r="G657" t="b">
-        <f>COUNTIF(A:A,A657)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21901,7 +21908,7 @@
         <v>2104</v>
       </c>
       <c r="G658" t="b">
-        <f>COUNTIF(A:A,A658)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21916,7 +21923,7 @@
         <v>2107</v>
       </c>
       <c r="G659" t="b">
-        <f>COUNTIF(A:A,A659)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21934,7 +21941,7 @@
         <v>2111</v>
       </c>
       <c r="G660" t="b">
-        <f>COUNTIF(A:A,A660)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21952,7 +21959,7 @@
         <v>2114</v>
       </c>
       <c r="G661" t="b">
-        <f>COUNTIF(A:A,A661)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21967,7 +21974,7 @@
         <v>2117</v>
       </c>
       <c r="G662" t="b">
-        <f>COUNTIF(A:A,A662)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -21985,7 +21992,7 @@
         <v>2120</v>
       </c>
       <c r="G663" t="b">
-        <f>COUNTIF(A:A,A663)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22003,7 +22010,7 @@
         <v>2124</v>
       </c>
       <c r="G664" t="b">
-        <f>COUNTIF(A:A,A664)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22021,7 +22028,7 @@
         <v>2127</v>
       </c>
       <c r="G665" t="b">
-        <f>COUNTIF(A:A,A665)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22036,7 +22043,7 @@
         <v>2130</v>
       </c>
       <c r="G666" t="b">
-        <f>COUNTIF(A:A,A666)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22051,7 +22058,7 @@
         <v>2133</v>
       </c>
       <c r="G667" t="b">
-        <f>COUNTIF(A:A,A667)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22069,7 +22076,7 @@
         <v>2137</v>
       </c>
       <c r="G668" t="b">
-        <f>COUNTIF(A:A,A668)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22087,7 +22094,7 @@
         <v>2140</v>
       </c>
       <c r="G669" t="b">
-        <f>COUNTIF(A:A,A669)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22099,13 +22106,13 @@
         <v>2142</v>
       </c>
       <c r="D670" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="E670" t="s">
         <v>2143</v>
       </c>
       <c r="G670" t="b">
-        <f>COUNTIF(A:A,A670)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22123,7 +22130,7 @@
         <v>2146</v>
       </c>
       <c r="G671" t="b">
-        <f>COUNTIF(A:A,A671)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22141,7 +22148,7 @@
         <v>2149</v>
       </c>
       <c r="G672" t="b">
-        <f>COUNTIF(A:A,A672)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22156,7 +22163,7 @@
         <v>2151</v>
       </c>
       <c r="G673" t="b">
-        <f>COUNTIF(A:A,A673)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22171,7 +22178,7 @@
         <v>2154</v>
       </c>
       <c r="G674" t="b">
-        <f>COUNTIF(A:A,A674)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22189,7 +22196,7 @@
         <v>2158</v>
       </c>
       <c r="G675" t="b">
-        <f>COUNTIF(A:A,A675)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22201,13 +22208,13 @@
         <v>1856</v>
       </c>
       <c r="D676" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="E676" t="s">
         <v>1857</v>
       </c>
       <c r="G676" t="b">
-        <f>COUNTIF(A:A,A676)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22225,7 +22232,7 @@
         <v>2162</v>
       </c>
       <c r="G677" t="b">
-        <f>COUNTIF(A:A,A677)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22240,7 +22247,7 @@
         <v>2164</v>
       </c>
       <c r="G678" t="b">
-        <f>COUNTIF(A:A,A678)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22252,13 +22259,13 @@
         <v>2166</v>
       </c>
       <c r="D679" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="E679" t="s">
         <v>2167</v>
       </c>
       <c r="G679" t="b">
-        <f>COUNTIF(A:A,A679)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22276,7 +22283,7 @@
         <v>2171</v>
       </c>
       <c r="G680" t="b">
-        <f>COUNTIF(A:A,A680)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22294,7 +22301,7 @@
         <v>2174</v>
       </c>
       <c r="G681" t="b">
-        <f>COUNTIF(A:A,A681)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22309,7 +22316,7 @@
         <v>2177</v>
       </c>
       <c r="G682" t="b">
-        <f>COUNTIF(A:A,A682)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22327,7 +22334,7 @@
         <v>2180</v>
       </c>
       <c r="G683" t="b">
-        <f>COUNTIF(A:A,A683)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22339,13 +22346,13 @@
         <v>2182</v>
       </c>
       <c r="D684" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="E684" t="s">
         <v>2183</v>
       </c>
       <c r="G684" t="b">
-        <f>COUNTIF(A:A,A684)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22357,13 +22364,13 @@
         <v>2185</v>
       </c>
       <c r="D685" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="E685" t="s">
         <v>2186</v>
       </c>
       <c r="G685" t="b">
-        <f>COUNTIF(A:A,A685)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22375,13 +22382,13 @@
         <v>2188</v>
       </c>
       <c r="D686" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="E686" t="s">
         <v>2189</v>
       </c>
       <c r="G686" t="b">
-        <f>COUNTIF(A:A,A686)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22399,7 +22406,7 @@
         <v>2193</v>
       </c>
       <c r="G687" t="b">
-        <f>COUNTIF(A:A,A687)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22417,7 +22424,7 @@
         <v>2197</v>
       </c>
       <c r="G688" t="b">
-        <f>COUNTIF(A:A,A688)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22432,7 +22439,7 @@
         <v>2200</v>
       </c>
       <c r="G689" t="b">
-        <f>COUNTIF(A:A,A689)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22450,7 +22457,7 @@
         <v>2203</v>
       </c>
       <c r="G690" t="b">
-        <f>COUNTIF(A:A,A690)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22468,7 +22475,7 @@
         <v>2205</v>
       </c>
       <c r="G691" t="b">
-        <f>COUNTIF(A:A,A691)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22483,7 +22490,7 @@
         <v>18</v>
       </c>
       <c r="G692" t="b">
-        <f>COUNTIF(A:A,A692)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22501,7 +22508,7 @@
         <v>2210</v>
       </c>
       <c r="G693" t="b">
-        <f>COUNTIF(A:A,A693)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22519,7 +22526,7 @@
         <v>2214</v>
       </c>
       <c r="G694" t="b">
-        <f>COUNTIF(A:A,A694)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22534,7 +22541,7 @@
         <v>2217</v>
       </c>
       <c r="G695" t="b">
-        <f>COUNTIF(A:A,A695)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22552,7 +22559,7 @@
         <v>2221</v>
       </c>
       <c r="G696" t="b">
-        <f>COUNTIF(A:A,A696)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22564,13 +22571,13 @@
         <v>2223</v>
       </c>
       <c r="D697" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="E697" t="s">
         <v>2224</v>
       </c>
       <c r="G697" t="b">
-        <f>COUNTIF(A:A,A697)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22585,7 +22592,7 @@
         <v>2227</v>
       </c>
       <c r="G698" t="b">
-        <f>COUNTIF(A:A,A698)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22603,7 +22610,7 @@
         <v>2231</v>
       </c>
       <c r="G699" t="b">
-        <f>COUNTIF(A:A,A699)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22621,7 +22628,7 @@
         <v>2234</v>
       </c>
       <c r="G700" t="b">
-        <f>COUNTIF(A:A,A700)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22639,7 +22646,7 @@
         <v>2238</v>
       </c>
       <c r="G701" t="b">
-        <f>COUNTIF(A:A,A701)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22654,7 +22661,7 @@
         <v>2241</v>
       </c>
       <c r="G702" t="b">
-        <f>COUNTIF(A:A,A702)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22666,13 +22673,13 @@
         <v>2243</v>
       </c>
       <c r="D703" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="E703" t="s">
         <v>2244</v>
       </c>
       <c r="G703" t="b">
-        <f>COUNTIF(A:A,A703)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22687,7 +22694,7 @@
         <v>2247</v>
       </c>
       <c r="G704" t="b">
-        <f>COUNTIF(A:A,A704)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22702,13 +22709,13 @@
         <v>2250</v>
       </c>
       <c r="D705" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="E705" t="s">
         <v>2251</v>
       </c>
       <c r="G705" t="b">
-        <f>COUNTIF(A:A,A705)&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22723,7 +22730,7 @@
         <v>2254</v>
       </c>
       <c r="G706" t="b">
-        <f>COUNTIF(A:A,A706)&gt;1</f>
+        <f t="shared" ref="G706:G769" si="11">COUNTIF(A:A,A706)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -22738,7 +22745,7 @@
         <v>2256</v>
       </c>
       <c r="G707" t="b">
-        <f>COUNTIF(A:A,A707)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22750,13 +22757,13 @@
         <v>2258</v>
       </c>
       <c r="D708" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="E708" t="s">
         <v>2259</v>
       </c>
       <c r="G708" t="b">
-        <f>COUNTIF(A:A,A708)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22771,7 +22778,7 @@
         <v>2262</v>
       </c>
       <c r="G709" t="b">
-        <f>COUNTIF(A:A,A709)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22786,7 +22793,7 @@
         <v>1347</v>
       </c>
       <c r="G710" t="b">
-        <f>COUNTIF(A:A,A710)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22801,7 +22808,7 @@
         <v>2266</v>
       </c>
       <c r="G711" t="b">
-        <f>COUNTIF(A:A,A711)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22819,7 +22826,7 @@
         <v>2273</v>
       </c>
       <c r="G712" t="b">
-        <f>COUNTIF(A:A,A712)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22837,7 +22844,7 @@
         <v>1186</v>
       </c>
       <c r="G713" t="b">
-        <f>COUNTIF(A:A,A713)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22849,13 +22856,13 @@
         <v>2278</v>
       </c>
       <c r="D714" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="E714" t="s">
         <v>2279</v>
       </c>
       <c r="G714" t="b">
-        <f>COUNTIF(A:A,A714)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22873,7 +22880,7 @@
         <v>2282</v>
       </c>
       <c r="G715" t="b">
-        <f>COUNTIF(A:A,A715)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22891,7 +22898,7 @@
         <v>2285</v>
       </c>
       <c r="G716" t="b">
-        <f>COUNTIF(A:A,A716)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22909,7 +22916,7 @@
         <v>2288</v>
       </c>
       <c r="G717" t="b">
-        <f>COUNTIF(A:A,A717)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22927,7 +22934,7 @@
         <v>2291</v>
       </c>
       <c r="G718" t="b">
-        <f>COUNTIF(A:A,A718)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22945,7 +22952,7 @@
         <v>2294</v>
       </c>
       <c r="G719" t="b">
-        <f>COUNTIF(A:A,A719)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22957,13 +22964,13 @@
         <v>2296</v>
       </c>
       <c r="D720" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="E720" t="s">
         <v>2297</v>
       </c>
       <c r="G720" t="b">
-        <f>COUNTIF(A:A,A720)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22981,7 +22988,7 @@
         <v>2300</v>
       </c>
       <c r="G721" t="b">
-        <f>COUNTIF(A:A,A721)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -22996,7 +23003,7 @@
         <v>2303</v>
       </c>
       <c r="G722" t="b">
-        <f>COUNTIF(A:A,A722)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23008,13 +23015,13 @@
         <v>2305</v>
       </c>
       <c r="D723" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="E723" t="s">
         <v>2306</v>
       </c>
       <c r="G723" t="b">
-        <f>COUNTIF(A:A,A723)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23026,13 +23033,13 @@
         <v>2308</v>
       </c>
       <c r="D724" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="E724" t="s">
         <v>2309</v>
       </c>
       <c r="G724" t="b">
-        <f>COUNTIF(A:A,A724)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23050,7 +23057,7 @@
         <v>2312</v>
       </c>
       <c r="G725" t="b">
-        <f>COUNTIF(A:A,A725)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23068,7 +23075,7 @@
         <v>165</v>
       </c>
       <c r="G726" t="b">
-        <f>COUNTIF(A:A,A726)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23086,7 +23093,7 @@
         <v>2315</v>
       </c>
       <c r="G727" t="b">
-        <f>COUNTIF(A:A,A727)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23104,7 +23111,7 @@
         <v>2318</v>
       </c>
       <c r="G728" t="b">
-        <f>COUNTIF(A:A,A728)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23122,7 +23129,7 @@
         <v>2321</v>
       </c>
       <c r="G729" t="b">
-        <f>COUNTIF(A:A,A729)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23140,7 +23147,7 @@
         <v>2325</v>
       </c>
       <c r="G730" t="b">
-        <f>COUNTIF(A:A,A730)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23155,7 +23162,7 @@
         <v>2328</v>
       </c>
       <c r="G731" t="b">
-        <f>COUNTIF(A:A,A731)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23173,7 +23180,7 @@
         <v>2332</v>
       </c>
       <c r="G732" t="b">
-        <f>COUNTIF(A:A,A732)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23191,7 +23198,7 @@
         <v>2335</v>
       </c>
       <c r="G733" t="b">
-        <f>COUNTIF(A:A,A733)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23209,7 +23216,7 @@
         <v>2338</v>
       </c>
       <c r="G734" t="b">
-        <f>COUNTIF(A:A,A734)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23224,7 +23231,7 @@
         <v>2341</v>
       </c>
       <c r="G735" t="b">
-        <f>COUNTIF(A:A,A735)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23242,7 +23249,7 @@
         <v>2344</v>
       </c>
       <c r="G736" t="b">
-        <f>COUNTIF(A:A,A736)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23260,7 +23267,7 @@
         <v>2347</v>
       </c>
       <c r="G737" t="b">
-        <f>COUNTIF(A:A,A737)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23272,13 +23279,13 @@
         <v>2349</v>
       </c>
       <c r="D738" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="E738" t="s">
         <v>2350</v>
       </c>
       <c r="G738" t="b">
-        <f>COUNTIF(A:A,A738)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23293,7 +23300,7 @@
         <v>2352</v>
       </c>
       <c r="G739" t="b">
-        <f>COUNTIF(A:A,A739)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23305,13 +23312,13 @@
         <v>2354</v>
       </c>
       <c r="D740" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="E740" t="s">
         <v>2355</v>
       </c>
       <c r="G740" t="b">
-        <f>COUNTIF(A:A,A740)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23329,7 +23336,7 @@
         <v>2358</v>
       </c>
       <c r="G741" t="b">
-        <f>COUNTIF(A:A,A741)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23347,7 +23354,7 @@
         <v>2365</v>
       </c>
       <c r="G742" t="b">
-        <f>COUNTIF(A:A,A742)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23362,7 +23369,7 @@
         <v>2368</v>
       </c>
       <c r="G743" t="b">
-        <f>COUNTIF(A:A,A743)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23374,13 +23381,13 @@
         <v>2370</v>
       </c>
       <c r="D744" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="E744" t="s">
         <v>2371</v>
       </c>
       <c r="G744" t="b">
-        <f>COUNTIF(A:A,A744)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23398,7 +23405,7 @@
         <v>2374</v>
       </c>
       <c r="G745" t="b">
-        <f>COUNTIF(A:A,A745)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23410,13 +23417,13 @@
         <v>2376</v>
       </c>
       <c r="D746" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="E746" t="s">
         <v>2377</v>
       </c>
       <c r="G746" t="b">
-        <f>COUNTIF(A:A,A746)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23434,7 +23441,7 @@
         <v>2380</v>
       </c>
       <c r="G747" t="b">
-        <f>COUNTIF(A:A,A747)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23449,7 +23456,7 @@
         <v>2383</v>
       </c>
       <c r="G748" t="b">
-        <f>COUNTIF(A:A,A748)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23464,7 +23471,7 @@
         <v>2385</v>
       </c>
       <c r="G749" t="b">
-        <f>COUNTIF(A:A,A749)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23482,7 +23489,7 @@
         <v>2388</v>
       </c>
       <c r="G750" t="b">
-        <f>COUNTIF(A:A,A750)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23500,7 +23507,7 @@
         <v>2391</v>
       </c>
       <c r="G751" t="b">
-        <f>COUNTIF(A:A,A751)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23518,7 +23525,7 @@
         <v>2394</v>
       </c>
       <c r="G752" t="b">
-        <f>COUNTIF(A:A,A752)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23530,13 +23537,13 @@
         <v>2396</v>
       </c>
       <c r="D753" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="E753" t="s">
         <v>1821</v>
       </c>
       <c r="G753" t="b">
-        <f>COUNTIF(A:A,A753)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23554,7 +23561,7 @@
         <v>2399</v>
       </c>
       <c r="G754" t="b">
-        <f>COUNTIF(A:A,A754)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23569,7 +23576,7 @@
         <v>2402</v>
       </c>
       <c r="G755" t="b">
-        <f>COUNTIF(A:A,A755)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23584,13 +23591,13 @@
         <v>2212</v>
       </c>
       <c r="D756" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="E756" t="s">
         <v>2405</v>
       </c>
       <c r="G756" t="b">
-        <f>COUNTIF(A:A,A756)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23605,7 +23612,7 @@
         <v>2407</v>
       </c>
       <c r="G757" t="b">
-        <f>COUNTIF(A:A,A757)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23617,13 +23624,13 @@
         <v>2409</v>
       </c>
       <c r="D758" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="E758" t="s">
         <v>2410</v>
       </c>
       <c r="G758" t="b">
-        <f>COUNTIF(A:A,A758)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23638,7 +23645,7 @@
         <v>2413</v>
       </c>
       <c r="G759" t="b">
-        <f>COUNTIF(A:A,A759)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23656,7 +23663,7 @@
         <v>2417</v>
       </c>
       <c r="G760" t="b">
-        <f>COUNTIF(A:A,A760)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23674,7 +23681,7 @@
         <v>2420</v>
       </c>
       <c r="G761" t="b">
-        <f>COUNTIF(A:A,A761)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23689,7 +23696,7 @@
         <v>2423</v>
       </c>
       <c r="G762" t="b">
-        <f>COUNTIF(A:A,A762)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23704,7 +23711,7 @@
         <v>2426</v>
       </c>
       <c r="G763" t="b">
-        <f>COUNTIF(A:A,A763)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23716,13 +23723,13 @@
         <v>2428</v>
       </c>
       <c r="D764" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="E764" t="s">
         <v>2429</v>
       </c>
       <c r="G764" t="b">
-        <f>COUNTIF(A:A,A764)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23740,7 +23747,7 @@
         <v>2432</v>
       </c>
       <c r="G765" t="b">
-        <f>COUNTIF(A:A,A765)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23755,7 +23762,7 @@
         <v>2435</v>
       </c>
       <c r="G766" t="b">
-        <f>COUNTIF(A:A,A766)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23770,7 +23777,7 @@
         <v>2438</v>
       </c>
       <c r="G767" t="b">
-        <f>COUNTIF(A:A,A767)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23788,7 +23795,7 @@
         <v>2442</v>
       </c>
       <c r="G768" t="b">
-        <f>COUNTIF(A:A,A768)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23806,7 +23813,7 @@
         <v>2445</v>
       </c>
       <c r="G769" t="b">
-        <f>COUNTIF(A:A,A769)&gt;1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23818,13 +23825,13 @@
         <v>2447</v>
       </c>
       <c r="D770" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="E770" t="s">
         <v>2448</v>
       </c>
       <c r="G770" t="b">
-        <f>COUNTIF(A:A,A770)&gt;1</f>
+        <f t="shared" ref="G770:G833" si="12">COUNTIF(A:A,A770)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -23839,7 +23846,7 @@
         <v>2450</v>
       </c>
       <c r="G771" t="b">
-        <f>COUNTIF(A:A,A771)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23854,7 +23861,7 @@
         <v>2453</v>
       </c>
       <c r="G772" t="b">
-        <f>COUNTIF(A:A,A772)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23872,7 +23879,7 @@
         <v>2457</v>
       </c>
       <c r="G773" t="b">
-        <f>COUNTIF(A:A,A773)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23890,7 +23897,7 @@
         <v>2269</v>
       </c>
       <c r="G774" t="b">
-        <f>COUNTIF(A:A,A774)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23905,7 +23912,7 @@
         <v>2460</v>
       </c>
       <c r="G775" t="b">
-        <f>COUNTIF(A:A,A775)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23923,7 +23930,7 @@
         <v>2463</v>
       </c>
       <c r="G776" t="b">
-        <f>COUNTIF(A:A,A776)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23941,7 +23948,7 @@
         <v>2466</v>
       </c>
       <c r="G777" t="b">
-        <f>COUNTIF(A:A,A777)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23959,7 +23966,7 @@
         <v>2469</v>
       </c>
       <c r="G778" t="b">
-        <f>COUNTIF(A:A,A778)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23974,7 +23981,7 @@
         <v>2472</v>
       </c>
       <c r="G779" t="b">
-        <f>COUNTIF(A:A,A779)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -23986,13 +23993,13 @@
         <v>2474</v>
       </c>
       <c r="D780" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="E780" t="s">
         <v>2475</v>
       </c>
       <c r="G780" t="b">
-        <f>COUNTIF(A:A,A780)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24010,7 +24017,7 @@
         <v>2478</v>
       </c>
       <c r="G781" t="b">
-        <f>COUNTIF(A:A,A781)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24025,7 +24032,7 @@
         <v>557</v>
       </c>
       <c r="G782" t="b">
-        <f>COUNTIF(A:A,A782)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24043,7 +24050,7 @@
         <v>2483</v>
       </c>
       <c r="G783" t="b">
-        <f>COUNTIF(A:A,A783)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24058,13 +24065,13 @@
         <v>425</v>
       </c>
       <c r="D784" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="E784" t="s">
         <v>2486</v>
       </c>
       <c r="G784" t="b">
-        <f>COUNTIF(A:A,A784)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24082,7 +24089,7 @@
         <v>2489</v>
       </c>
       <c r="G785" t="b">
-        <f>COUNTIF(A:A,A785)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24100,7 +24107,7 @@
         <v>316</v>
       </c>
       <c r="G786" t="b">
-        <f>COUNTIF(A:A,A786)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24112,13 +24119,13 @@
         <v>2491</v>
       </c>
       <c r="D787" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="E787" t="s">
         <v>2492</v>
       </c>
       <c r="G787" t="b">
-        <f>COUNTIF(A:A,A787)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24136,7 +24143,7 @@
         <v>2496</v>
       </c>
       <c r="G788" t="b">
-        <f>COUNTIF(A:A,A788)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24148,13 +24155,13 @@
         <v>2498</v>
       </c>
       <c r="D789" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="E789" t="s">
         <v>2499</v>
       </c>
       <c r="G789" t="b">
-        <f>COUNTIF(A:A,A789)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24169,7 +24176,7 @@
         <v>617</v>
       </c>
       <c r="G790" t="b">
-        <f>COUNTIF(A:A,A790)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24187,7 +24194,7 @@
         <v>2503</v>
       </c>
       <c r="G791" t="b">
-        <f>COUNTIF(A:A,A791)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24202,7 +24209,7 @@
         <v>2505</v>
       </c>
       <c r="G792" t="b">
-        <f>COUNTIF(A:A,A792)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24220,7 +24227,7 @@
         <v>427</v>
       </c>
       <c r="G793" t="b">
-        <f>COUNTIF(A:A,A793)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24232,13 +24239,13 @@
         <v>2507</v>
       </c>
       <c r="D794" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="E794" t="s">
         <v>2508</v>
       </c>
       <c r="G794" t="b">
-        <f>COUNTIF(A:A,A794)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24250,13 +24257,13 @@
         <v>2510</v>
       </c>
       <c r="D795" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="E795" t="s">
         <v>2511</v>
       </c>
       <c r="G795" t="b">
-        <f>COUNTIF(A:A,A795)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24274,7 +24281,7 @@
         <v>2514</v>
       </c>
       <c r="G796" t="b">
-        <f>COUNTIF(A:A,A796)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24292,7 +24299,7 @@
         <v>2517</v>
       </c>
       <c r="G797" t="b">
-        <f>COUNTIF(A:A,A797)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24310,7 +24317,7 @@
         <v>2519</v>
       </c>
       <c r="G798" t="b">
-        <f>COUNTIF(A:A,A798)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24325,7 +24332,7 @@
         <v>2521</v>
       </c>
       <c r="G799" t="b">
-        <f>COUNTIF(A:A,A799)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24340,7 +24347,7 @@
         <v>2524</v>
       </c>
       <c r="G800" t="b">
-        <f>COUNTIF(A:A,A800)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24349,13 +24356,13 @@
         <v>2525</v>
       </c>
       <c r="D801" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="E801" t="s">
         <v>2526</v>
       </c>
       <c r="G801" t="b">
-        <f>COUNTIF(A:A,A801)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24373,7 +24380,7 @@
         <v>2530</v>
       </c>
       <c r="G802" t="b">
-        <f>COUNTIF(A:A,A802)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24391,7 +24398,7 @@
         <v>2533</v>
       </c>
       <c r="G803" t="b">
-        <f>COUNTIF(A:A,A803)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24409,7 +24416,7 @@
         <v>266</v>
       </c>
       <c r="G804" t="b">
-        <f>COUNTIF(A:A,A804)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24427,7 +24434,7 @@
         <v>2536</v>
       </c>
       <c r="G805" t="b">
-        <f>COUNTIF(A:A,A805)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24442,7 +24449,7 @@
         <v>2539</v>
       </c>
       <c r="G806" t="b">
-        <f>COUNTIF(A:A,A806)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24460,7 +24467,7 @@
         <v>137</v>
       </c>
       <c r="G807" t="b">
-        <f>COUNTIF(A:A,A807)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24481,7 +24488,7 @@
         <v>2543</v>
       </c>
       <c r="G808" t="b">
-        <f>COUNTIF(A:A,A808)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24496,7 +24503,7 @@
         <v>2545</v>
       </c>
       <c r="G809" t="b">
-        <f>COUNTIF(A:A,A809)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24514,7 +24521,7 @@
         <v>2548</v>
       </c>
       <c r="G810" t="b">
-        <f>COUNTIF(A:A,A810)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24526,13 +24533,13 @@
         <v>2550</v>
       </c>
       <c r="D811" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="E811" t="s">
         <v>1643</v>
       </c>
       <c r="G811" t="b">
-        <f>COUNTIF(A:A,A811)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24547,7 +24554,7 @@
         <v>2553</v>
       </c>
       <c r="G812" t="b">
-        <f>COUNTIF(A:A,A812)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24568,7 +24575,7 @@
         <v>2557</v>
       </c>
       <c r="G813" t="b">
-        <f>COUNTIF(A:A,A813)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24580,13 +24587,13 @@
         <v>2559</v>
       </c>
       <c r="D814" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="E814" t="s">
         <v>2560</v>
       </c>
       <c r="G814" t="b">
-        <f>COUNTIF(A:A,A814)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24604,7 +24611,7 @@
         <v>2563</v>
       </c>
       <c r="G815" t="b">
-        <f>COUNTIF(A:A,A815)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24619,7 +24626,7 @@
         <v>2566</v>
       </c>
       <c r="G816" t="b">
-        <f>COUNTIF(A:A,A816)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24640,7 +24647,7 @@
         <v>2569</v>
       </c>
       <c r="G817" t="b">
-        <f>COUNTIF(A:A,A817)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24658,7 +24665,7 @@
         <v>2572</v>
       </c>
       <c r="G818" t="b">
-        <f>COUNTIF(A:A,A818)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24670,13 +24677,13 @@
         <v>2574</v>
       </c>
       <c r="D819" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="E819" t="s">
         <v>2575</v>
       </c>
       <c r="G819" t="b">
-        <f>COUNTIF(A:A,A819)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24691,7 +24698,7 @@
         <v>2578</v>
       </c>
       <c r="G820" t="b">
-        <f>COUNTIF(A:A,A820)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24709,7 +24716,7 @@
         <v>2581</v>
       </c>
       <c r="G821" t="b">
-        <f>COUNTIF(A:A,A821)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24721,13 +24728,13 @@
         <v>2583</v>
       </c>
       <c r="D822" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="E822" t="s">
         <v>2584</v>
       </c>
       <c r="G822" t="b">
-        <f>COUNTIF(A:A,A822)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24742,7 +24749,7 @@
         <v>2586</v>
       </c>
       <c r="G823" t="b">
-        <f>COUNTIF(A:A,A823)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24757,7 +24764,7 @@
         <v>2589</v>
       </c>
       <c r="G824" t="b">
-        <f>COUNTIF(A:A,A824)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24775,7 +24782,7 @@
         <v>2592</v>
       </c>
       <c r="G825" t="b">
-        <f>COUNTIF(A:A,A825)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24787,13 +24794,13 @@
         <v>2594</v>
       </c>
       <c r="D826" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="E826" t="s">
         <v>2595</v>
       </c>
       <c r="G826" t="b">
-        <f>COUNTIF(A:A,A826)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24805,13 +24812,13 @@
         <v>321</v>
       </c>
       <c r="D827" t="s">
-        <v>3067</v>
+        <v>3438</v>
       </c>
       <c r="E827" t="s">
         <v>322</v>
       </c>
       <c r="G827" t="b">
-        <f>COUNTIF(A:A,A827)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24826,7 +24833,7 @@
         <v>2597</v>
       </c>
       <c r="G828" t="b">
-        <f>COUNTIF(A:A,A828)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24844,7 +24851,7 @@
         <v>963</v>
       </c>
       <c r="G829" t="b">
-        <f>COUNTIF(A:A,A829)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24862,7 +24869,7 @@
         <v>2600</v>
       </c>
       <c r="G830" t="b">
-        <f>COUNTIF(A:A,A830)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24883,7 +24890,7 @@
         <v>763</v>
       </c>
       <c r="G831" t="b">
-        <f>COUNTIF(A:A,A831)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24895,13 +24902,13 @@
         <v>2602</v>
       </c>
       <c r="D832" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="E832" t="s">
         <v>2603</v>
       </c>
       <c r="G832" t="b">
-        <f>COUNTIF(A:A,A832)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24916,7 +24923,7 @@
         <v>2606</v>
       </c>
       <c r="G833" t="b">
-        <f>COUNTIF(A:A,A833)&gt;1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24934,7 +24941,7 @@
         <v>2609</v>
       </c>
       <c r="G834" t="b">
-        <f>COUNTIF(A:A,A834)&gt;1</f>
+        <f t="shared" ref="G834:G897" si="13">COUNTIF(A:A,A834)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -24949,7 +24956,7 @@
         <v>2611</v>
       </c>
       <c r="G835" t="b">
-        <f>COUNTIF(A:A,A835)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -24964,7 +24971,7 @@
         <v>2614</v>
       </c>
       <c r="G836" t="b">
-        <f>COUNTIF(A:A,A836)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -24985,7 +24992,7 @@
         <v>2617</v>
       </c>
       <c r="G837" t="b">
-        <f>COUNTIF(A:A,A837)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -24994,13 +25001,13 @@
         <v>3119</v>
       </c>
       <c r="D838" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="E838" t="s">
         <v>2619</v>
       </c>
       <c r="G838" t="b">
-        <f>COUNTIF(A:A,A838)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25015,22 +25022,22 @@
         <v>2622</v>
       </c>
       <c r="G839" t="b">
-        <f>COUNTIF(A:A,A839)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="D840" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="E840" t="s">
         <v>2624</v>
       </c>
       <c r="G840" t="b">
-        <f>COUNTIF(A:A,A840)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25045,7 +25052,7 @@
         <v>2629</v>
       </c>
       <c r="G841" t="b">
-        <f>COUNTIF(A:A,A841)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25054,13 +25061,13 @@
         <v>3121</v>
       </c>
       <c r="D842" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="E842" t="s">
         <v>2636</v>
       </c>
       <c r="G842" t="b">
-        <f>COUNTIF(A:A,A842)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25069,13 +25076,13 @@
         <v>3122</v>
       </c>
       <c r="D843" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="E843" t="s">
         <v>2637</v>
       </c>
       <c r="G843" t="b">
-        <f>COUNTIF(A:A,A843)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25084,13 +25091,13 @@
         <v>3123</v>
       </c>
       <c r="D844" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E844" t="s">
         <v>2641</v>
       </c>
       <c r="G844" t="b">
-        <f>COUNTIF(A:A,A844)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25105,22 +25112,22 @@
         <v>2653</v>
       </c>
       <c r="G845" t="b">
-        <f>COUNTIF(A:A,A845)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="D846" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="E846" t="s">
         <v>2658</v>
       </c>
       <c r="G846" t="b">
-        <f>COUNTIF(A:A,A846)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25129,13 +25136,13 @@
         <v>3125</v>
       </c>
       <c r="D847" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="E847" t="s">
         <v>2659</v>
       </c>
       <c r="G847" t="b">
-        <f>COUNTIF(A:A,A847)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25150,7 +25157,7 @@
         <v>2668</v>
       </c>
       <c r="G848" t="b">
-        <f>COUNTIF(A:A,A848)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25165,7 +25172,7 @@
         <v>2670</v>
       </c>
       <c r="G849" t="b">
-        <f>COUNTIF(A:A,A849)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25180,7 +25187,7 @@
         <v>2679</v>
       </c>
       <c r="G850" t="b">
-        <f>COUNTIF(A:A,A850)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25189,13 +25196,13 @@
         <v>2680</v>
       </c>
       <c r="D851" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="E851" t="s">
         <v>2681</v>
       </c>
       <c r="G851" t="b">
-        <f>COUNTIF(A:A,A851)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25207,13 +25214,13 @@
         <v>2683</v>
       </c>
       <c r="D852" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="E852" t="s">
         <v>2684</v>
       </c>
       <c r="G852" t="b">
-        <f>COUNTIF(A:A,A852)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25228,22 +25235,22 @@
         <v>2686</v>
       </c>
       <c r="G853" t="b">
-        <f>COUNTIF(A:A,A853)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="D854" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="E854" t="s">
         <v>2624</v>
       </c>
       <c r="G854" t="b">
-        <f>COUNTIF(A:A,A854)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25258,7 +25265,7 @@
         <v>2627</v>
       </c>
       <c r="G855" t="b">
-        <f>COUNTIF(A:A,A855)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25273,7 +25280,7 @@
         <v>557</v>
       </c>
       <c r="G856" t="b">
-        <f>COUNTIF(A:A,A856)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25291,7 +25298,7 @@
         <v>2688</v>
       </c>
       <c r="G857" t="b">
-        <f>COUNTIF(A:A,A857)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25306,7 +25313,7 @@
         <v>2632</v>
       </c>
       <c r="G858" t="b">
-        <f>COUNTIF(A:A,A858)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25321,7 +25328,7 @@
         <v>2635</v>
       </c>
       <c r="G859" t="b">
-        <f>COUNTIF(A:A,A859)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25330,13 +25337,13 @@
         <v>2689</v>
       </c>
       <c r="D860" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="E860" t="s">
         <v>2690</v>
       </c>
       <c r="G860" t="b">
-        <f>COUNTIF(A:A,A860)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25345,13 +25352,13 @@
         <v>2691</v>
       </c>
       <c r="D861" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="E861" t="s">
         <v>2692</v>
       </c>
       <c r="G861" t="b">
-        <f>COUNTIF(A:A,A861)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25372,7 +25379,7 @@
         <v>2640</v>
       </c>
       <c r="G862" t="b">
-        <f>COUNTIF(A:A,A862)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25384,13 +25391,13 @@
         <v>2695</v>
       </c>
       <c r="D863" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E863" t="s">
         <v>2696</v>
       </c>
       <c r="G863" t="b">
-        <f>COUNTIF(A:A,A863)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25411,7 +25418,7 @@
         <v>2644</v>
       </c>
       <c r="G864" t="b">
-        <f>COUNTIF(A:A,A864)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25432,7 +25439,7 @@
         <v>2647</v>
       </c>
       <c r="G865" t="b">
-        <f>COUNTIF(A:A,A865)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25447,7 +25454,7 @@
         <v>2227</v>
       </c>
       <c r="G866" t="b">
-        <f>COUNTIF(A:A,A866)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25462,7 +25469,7 @@
         <v>2652</v>
       </c>
       <c r="G867" t="b">
-        <f>COUNTIF(A:A,A867)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25480,7 +25487,7 @@
         <v>257</v>
       </c>
       <c r="G868" t="b">
-        <f>COUNTIF(A:A,A868)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25501,7 +25508,7 @@
         <v>1397</v>
       </c>
       <c r="G869" t="b">
-        <f>COUNTIF(A:A,A869)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25516,7 +25523,7 @@
         <v>2657</v>
       </c>
       <c r="G870" t="b">
-        <f>COUNTIF(A:A,A870)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25534,7 +25541,7 @@
         <v>2702</v>
       </c>
       <c r="G871" t="b">
-        <f>COUNTIF(A:A,A871)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25543,13 +25550,13 @@
         <v>2703</v>
       </c>
       <c r="D872" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="E872" t="s">
         <v>2704</v>
       </c>
       <c r="G872" t="b">
-        <f>COUNTIF(A:A,A872)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25564,7 +25571,7 @@
         <v>2662</v>
       </c>
       <c r="G873" t="b">
-        <f>COUNTIF(A:A,A873)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25585,7 +25592,7 @@
         <v>2665</v>
       </c>
       <c r="G874" t="b">
-        <f>COUNTIF(A:A,A874)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25600,7 +25607,7 @@
         <v>865</v>
       </c>
       <c r="G875" t="b">
-        <f>COUNTIF(A:A,A875)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25618,7 +25625,7 @@
         <v>3151</v>
       </c>
       <c r="G876" t="b">
-        <f>COUNTIF(A:A,A876)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25636,7 +25643,7 @@
         <v>2711</v>
       </c>
       <c r="G877" t="b">
-        <f>COUNTIF(A:A,A877)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25651,7 +25658,7 @@
         <v>2671</v>
       </c>
       <c r="G878" t="b">
-        <f>COUNTIF(A:A,A878)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25666,7 +25673,7 @@
         <v>2674</v>
       </c>
       <c r="G879" t="b">
-        <f>COUNTIF(A:A,A879)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25684,7 +25691,7 @@
         <v>2714</v>
       </c>
       <c r="G880" t="b">
-        <f>COUNTIF(A:A,A880)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25699,7 +25706,7 @@
         <v>2677</v>
       </c>
       <c r="G881" t="b">
-        <f>COUNTIF(A:A,A881)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25711,13 +25718,13 @@
         <v>2716</v>
       </c>
       <c r="D882" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="E882" t="s">
         <v>2717</v>
       </c>
       <c r="G882" t="b">
-        <f>COUNTIF(A:A,A882)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25732,7 +25739,7 @@
         <v>2720</v>
       </c>
       <c r="G883" t="b">
-        <f>COUNTIF(A:A,A883)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25750,7 +25757,7 @@
         <v>2723</v>
       </c>
       <c r="G884" t="b">
-        <f>COUNTIF(A:A,A884)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25765,7 +25772,7 @@
         <v>2726</v>
       </c>
       <c r="G885" t="b">
-        <f>COUNTIF(A:A,A885)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25777,13 +25784,13 @@
         <v>2728</v>
       </c>
       <c r="D886" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="E886" t="s">
         <v>2729</v>
       </c>
       <c r="G886" t="b">
-        <f>COUNTIF(A:A,A886)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25801,22 +25808,22 @@
         <v>2733</v>
       </c>
       <c r="G887" t="b">
-        <f>COUNTIF(A:A,A887)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="D888" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="E888" t="s">
         <v>2734</v>
       </c>
       <c r="G888" t="b">
-        <f>COUNTIF(A:A,A888)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25831,7 +25838,7 @@
         <v>2737</v>
       </c>
       <c r="G889" t="b">
-        <f>COUNTIF(A:A,A889)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25849,7 +25856,7 @@
         <v>2740</v>
       </c>
       <c r="G890" t="b">
-        <f>COUNTIF(A:A,A890)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25864,7 +25871,7 @@
         <v>1726</v>
       </c>
       <c r="G891" t="b">
-        <f>COUNTIF(A:A,A891)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25882,7 +25889,7 @@
         <v>731</v>
       </c>
       <c r="G892" t="b">
-        <f>COUNTIF(A:A,A892)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25897,7 +25904,7 @@
         <v>2746</v>
       </c>
       <c r="G893" t="b">
-        <f>COUNTIF(A:A,A893)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25918,7 +25925,7 @@
         <v>401</v>
       </c>
       <c r="G894" t="b">
-        <f>COUNTIF(A:A,A894)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25939,7 +25946,7 @@
         <v>2749</v>
       </c>
       <c r="G895" t="b">
-        <f>COUNTIF(A:A,A895)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25960,7 +25967,7 @@
         <v>2753</v>
       </c>
       <c r="G896" t="b">
-        <f>COUNTIF(A:A,A896)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25975,7 +25982,7 @@
         <v>2756</v>
       </c>
       <c r="G897" t="b">
-        <f>COUNTIF(A:A,A897)&gt;1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25990,7 +25997,7 @@
         <v>2758</v>
       </c>
       <c r="G898" t="b">
-        <f>COUNTIF(A:A,A898)&gt;1</f>
+        <f t="shared" ref="G898:G961" si="14">COUNTIF(A:A,A898)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -26005,7 +26012,7 @@
         <v>2761</v>
       </c>
       <c r="G899" t="b">
-        <f>COUNTIF(A:A,A899)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26026,7 +26033,7 @@
         <v>2765</v>
       </c>
       <c r="G900" t="b">
-        <f>COUNTIF(A:A,A900)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26041,7 +26048,7 @@
         <v>2768</v>
       </c>
       <c r="G901" t="b">
-        <f>COUNTIF(A:A,A901)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26062,7 +26069,7 @@
         <v>2772</v>
       </c>
       <c r="G902" t="b">
-        <f>COUNTIF(A:A,A902)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26083,7 +26090,7 @@
         <v>2775</v>
       </c>
       <c r="G903" t="b">
-        <f>COUNTIF(A:A,A903)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26098,7 +26105,7 @@
         <v>2778</v>
       </c>
       <c r="G904" t="b">
-        <f>COUNTIF(A:A,A904)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26119,7 +26126,7 @@
         <v>2782</v>
       </c>
       <c r="G905" t="b">
-        <f>COUNTIF(A:A,A905)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26134,7 +26141,7 @@
         <v>2785</v>
       </c>
       <c r="G906" t="b">
-        <f>COUNTIF(A:A,A906)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26152,7 +26159,7 @@
         <v>2788</v>
       </c>
       <c r="G907" t="b">
-        <f>COUNTIF(A:A,A907)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26170,7 +26177,7 @@
         <v>2791</v>
       </c>
       <c r="G908" t="b">
-        <f>COUNTIF(A:A,A908)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26188,7 +26195,7 @@
         <v>2794</v>
       </c>
       <c r="G909" t="b">
-        <f>COUNTIF(A:A,A909)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26206,7 +26213,7 @@
         <v>2361</v>
       </c>
       <c r="G910" t="b">
-        <f>COUNTIF(A:A,A910)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26224,7 +26231,7 @@
         <v>2797</v>
       </c>
       <c r="G911" t="b">
-        <f>COUNTIF(A:A,A911)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26239,7 +26246,7 @@
         <v>2800</v>
       </c>
       <c r="G912" t="b">
-        <f>COUNTIF(A:A,A912)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26254,7 +26261,7 @@
         <v>2802</v>
       </c>
       <c r="G913" t="b">
-        <f>COUNTIF(A:A,A913)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26269,7 +26276,7 @@
         <v>2805</v>
       </c>
       <c r="G914" t="b">
-        <f>COUNTIF(A:A,A914)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26281,13 +26288,13 @@
         <v>2807</v>
       </c>
       <c r="D915" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="E915" t="s">
         <v>2808</v>
       </c>
       <c r="G915" t="b">
-        <f>COUNTIF(A:A,A915)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26305,7 +26312,7 @@
         <v>2811</v>
       </c>
       <c r="G916" t="b">
-        <f>COUNTIF(A:A,A916)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26320,7 +26327,7 @@
         <v>2813</v>
       </c>
       <c r="G917" t="b">
-        <f>COUNTIF(A:A,A917)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26332,13 +26339,13 @@
         <v>2815</v>
       </c>
       <c r="D918" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E918" t="s">
         <v>2816</v>
       </c>
       <c r="G918" t="b">
-        <f>COUNTIF(A:A,A918)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26356,7 +26363,7 @@
         <v>2819</v>
       </c>
       <c r="G919" t="b">
-        <f>COUNTIF(A:A,A919)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26374,7 +26381,7 @@
         <v>2822</v>
       </c>
       <c r="G920" t="b">
-        <f>COUNTIF(A:A,A920)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26389,7 +26396,7 @@
         <v>2825</v>
       </c>
       <c r="G921" t="b">
-        <f>COUNTIF(A:A,A921)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26407,7 +26414,7 @@
         <v>2828</v>
       </c>
       <c r="G922" t="b">
-        <f>COUNTIF(A:A,A922)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26419,13 +26426,13 @@
         <v>2830</v>
       </c>
       <c r="D923" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="E923" t="s">
         <v>2831</v>
       </c>
       <c r="G923" t="b">
-        <f>COUNTIF(A:A,A923)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26443,7 +26450,7 @@
         <v>2834</v>
       </c>
       <c r="G924" t="b">
-        <f>COUNTIF(A:A,A924)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26455,13 +26462,13 @@
         <v>2836</v>
       </c>
       <c r="D925" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="E925" t="s">
         <v>2837</v>
       </c>
       <c r="G925" t="b">
-        <f>COUNTIF(A:A,A925)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26470,13 +26477,13 @@
         <v>2838</v>
       </c>
       <c r="D926" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="E926" t="s">
         <v>2839</v>
       </c>
       <c r="G926" t="b">
-        <f>COUNTIF(A:A,A926)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26494,7 +26501,7 @@
         <v>2842</v>
       </c>
       <c r="G927" t="b">
-        <f>COUNTIF(A:A,A927)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26509,7 +26516,7 @@
         <v>2845</v>
       </c>
       <c r="G928" t="b">
-        <f>COUNTIF(A:A,A928)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26524,7 +26531,7 @@
         <v>1033</v>
       </c>
       <c r="G929" t="b">
-        <f>COUNTIF(A:A,A929)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26539,7 +26546,7 @@
         <v>2849</v>
       </c>
       <c r="G930" t="b">
-        <f>COUNTIF(A:A,A930)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26554,7 +26561,7 @@
         <v>2851</v>
       </c>
       <c r="G931" t="b">
-        <f>COUNTIF(A:A,A931)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26569,7 +26576,7 @@
         <v>865</v>
       </c>
       <c r="G932" t="b">
-        <f>COUNTIF(A:A,A932)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26587,7 +26594,7 @@
         <v>584</v>
       </c>
       <c r="G933" t="b">
-        <f>COUNTIF(A:A,A933)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26605,22 +26612,22 @@
         <v>456</v>
       </c>
       <c r="G934" t="b">
-        <f>COUNTIF(A:A,A934)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D935" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="E935" t="s">
         <v>2853</v>
       </c>
       <c r="G935" t="b">
-        <f>COUNTIF(A:A,A935)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26632,13 +26639,13 @@
         <v>2855</v>
       </c>
       <c r="D936" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="E936" t="s">
         <v>2856</v>
       </c>
       <c r="G936" t="b">
-        <f>COUNTIF(A:A,A936)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26653,7 +26660,7 @@
         <v>2858</v>
       </c>
       <c r="G937" t="b">
-        <f>COUNTIF(A:A,A937)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26662,13 +26669,13 @@
         <v>2859</v>
       </c>
       <c r="D938" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="E938" t="s">
         <v>2860</v>
       </c>
       <c r="G938" t="b">
-        <f>COUNTIF(A:A,A938)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26683,7 +26690,7 @@
         <v>2862</v>
       </c>
       <c r="G939" t="b">
-        <f>COUNTIF(A:A,A939)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26698,7 +26705,7 @@
         <v>2864</v>
       </c>
       <c r="G940" t="b">
-        <f>COUNTIF(A:A,A940)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26716,25 +26723,25 @@
         <v>2867</v>
       </c>
       <c r="G941" t="b">
-        <f>COUNTIF(A:A,A941)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="B942" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="D942" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="E942" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="G942" t="b">
-        <f>COUNTIF(A:A,A942)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26749,7 +26756,7 @@
         <v>1556</v>
       </c>
       <c r="G943" t="b">
-        <f>COUNTIF(A:A,A943)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26764,295 +26771,295 @@
         <v>2979</v>
       </c>
       <c r="E944" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="G944" t="b">
-        <f>COUNTIF(A:A,A944)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C945" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D945" t="s">
         <v>3359</v>
       </c>
-      <c r="C945" t="s">
-        <v>3401</v>
-      </c>
-      <c r="D945" t="s">
-        <v>3360</v>
-      </c>
       <c r="E945" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="G945" t="b">
-        <f>COUNTIF(A:A,A945)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
+        <v>3360</v>
+      </c>
+      <c r="D946" t="s">
         <v>3361</v>
       </c>
-      <c r="D946" t="s">
-        <v>3362</v>
-      </c>
       <c r="E946" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="G946" t="b">
-        <f>COUNTIF(A:A,A946)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="B947" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D947" t="s">
         <v>3363</v>
       </c>
-      <c r="D947" t="s">
-        <v>3364</v>
-      </c>
       <c r="E947" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="G947" t="b">
-        <f>COUNTIF(A:A,A947)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="D948" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="E948" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="G948" t="b">
-        <f>COUNTIF(A:A,A948)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="B949" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D949" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="E949" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="G949" t="b">
-        <f>COUNTIF(A:A,A949)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C950" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D950" t="s">
         <v>3367</v>
       </c>
-      <c r="C950" t="s">
-        <v>3402</v>
-      </c>
-      <c r="D950" t="s">
-        <v>3368</v>
-      </c>
       <c r="E950" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="G950" t="b">
-        <f>COUNTIF(A:A,A950)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D951" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="E951" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="G951" t="b">
-        <f>COUNTIF(A:A,A951)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
+        <v>3368</v>
+      </c>
+      <c r="D952" t="s">
         <v>3369</v>
       </c>
-      <c r="D952" t="s">
-        <v>3370</v>
-      </c>
       <c r="E952" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="G952" t="b">
-        <f>COUNTIF(A:A,A952)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="B953" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="D953" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E953" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="G953" t="b">
-        <f>COUNTIF(A:A,A953)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="B954" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D954" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="E954" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="G954" t="b">
-        <f>COUNTIF(A:A,A954)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="B955" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="D955" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="E955" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="G955" t="b">
-        <f>COUNTIF(A:A,A955)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="B956" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="D956" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="E956" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="G956" t="b">
-        <f>COUNTIF(A:A,A956)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
+        <v>3374</v>
+      </c>
+      <c r="D957" t="s">
         <v>3375</v>
       </c>
-      <c r="D957" t="s">
-        <v>3376</v>
-      </c>
       <c r="E957" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="G957" t="b">
-        <f>COUNTIF(A:A,A957)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="B958" t="s">
+        <v>3376</v>
+      </c>
+      <c r="D958" t="s">
         <v>3377</v>
       </c>
-      <c r="D958" t="s">
-        <v>3378</v>
-      </c>
       <c r="E958" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="G958" t="b">
-        <f>COUNTIF(A:A,A958)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C959" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D959" t="s">
         <v>3379</v>
       </c>
-      <c r="C959" t="s">
-        <v>3403</v>
-      </c>
-      <c r="D959" t="s">
-        <v>3380</v>
-      </c>
       <c r="E959" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="G959" t="b">
-        <f>COUNTIF(A:A,A959)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
+        <v>3380</v>
+      </c>
+      <c r="D960" t="s">
         <v>3381</v>
       </c>
-      <c r="D960" t="s">
-        <v>3382</v>
-      </c>
       <c r="E960" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="G960" t="b">
-        <f>COUNTIF(A:A,A960)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="D961" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="E961" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="G961" t="b">
-        <f>COUNTIF(A:A,A961)&gt;1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -27067,7 +27074,7 @@
         <v>4</v>
       </c>
       <c r="G962" t="b">
-        <f>COUNTIF(A:A,A962)&gt;1</f>
+        <f t="shared" ref="G962:G984" si="15">COUNTIF(A:A,A962)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -27082,10 +27089,10 @@
         <v>7</v>
       </c>
       <c r="E963" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="G963" t="b">
-        <f>COUNTIF(A:A,A963)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27103,7 +27110,7 @@
         <v>3145</v>
       </c>
       <c r="G964" t="b">
-        <f>COUNTIF(A:A,A964)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27118,7 +27125,7 @@
         <v>12</v>
       </c>
       <c r="G965" t="b">
-        <f>COUNTIF(A:A,A965)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27136,7 +27143,7 @@
         <v>15</v>
       </c>
       <c r="G966" t="b">
-        <f>COUNTIF(A:A,A966)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27151,10 +27158,10 @@
         <v>2872</v>
       </c>
       <c r="E967" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="G967" t="b">
-        <f>COUNTIF(A:A,A967)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27169,10 +27176,10 @@
         <v>1760</v>
       </c>
       <c r="E968" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="G968" t="b">
-        <f>COUNTIF(A:A,A968)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27190,7 +27197,7 @@
         <v>26</v>
       </c>
       <c r="G969" t="b">
-        <f>COUNTIF(A:A,A969)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27205,7 +27212,7 @@
         <v>29</v>
       </c>
       <c r="G970" t="b">
-        <f>COUNTIF(A:A,A970)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27220,10 +27227,10 @@
         <v>2873</v>
       </c>
       <c r="E971" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="G971" t="b">
-        <f>COUNTIF(A:A,A971)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27238,10 +27245,10 @@
         <v>33</v>
       </c>
       <c r="E972" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="G972" t="b">
-        <f>COUNTIF(A:A,A972)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27256,25 +27263,25 @@
         <v>2874</v>
       </c>
       <c r="E973" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="G973" t="b">
-        <f>COUNTIF(A:A,A973)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="D974" t="s">
         <v>3154</v>
       </c>
       <c r="E974" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="G974" t="b">
-        <f>COUNTIF(A:A,A974)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27289,10 +27296,10 @@
         <v>41</v>
       </c>
       <c r="E975" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="G975" t="b">
-        <f>COUNTIF(A:A,A975)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27307,10 +27314,10 @@
         <v>2875</v>
       </c>
       <c r="E976" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="G976" t="b">
-        <f>COUNTIF(A:A,A976)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27325,7 +27332,7 @@
         <v>46</v>
       </c>
       <c r="G977" t="b">
-        <f>COUNTIF(A:A,A977)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27340,10 +27347,10 @@
         <v>2876</v>
       </c>
       <c r="E978" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="G978" t="b">
-        <f>COUNTIF(A:A,A978)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27358,7 +27365,7 @@
         <v>54</v>
       </c>
       <c r="G979" t="b">
-        <f>COUNTIF(A:A,A979)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27373,7 +27380,7 @@
         <v>57</v>
       </c>
       <c r="G980" t="b">
-        <f>COUNTIF(A:A,A980)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27388,7 +27395,7 @@
         <v>60</v>
       </c>
       <c r="G981" t="b">
-        <f>COUNTIF(A:A,A981)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27403,10 +27410,10 @@
         <v>3156</v>
       </c>
       <c r="E982" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="G982" t="b">
-        <f>COUNTIF(A:A,A982)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27418,10 +27425,10 @@
         <v>2877</v>
       </c>
       <c r="E983" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="G983" t="b">
-        <f>COUNTIF(A:A,A983)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -27436,10 +27443,10 @@
         <v>66</v>
       </c>
       <c r="E984" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="G984" t="b">
-        <f>COUNTIF(A:A,A984)&gt;1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>

--- a/vocabulaire_allemand_traduit_depuis_allemand.xlsx
+++ b/vocabulaire_allemand_traduit_depuis_allemand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac3e3e535f2b81b3/Documents/github/jeuVocabulaireDeutsch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="509" documentId="11_7DC99D8A115E9E0F62355476585DCE3A874389B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0230DD2-5CE0-4C6B-B55D-81D99AEB5AC2}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="11_7DC99D8A115E9E0F62355476585DCE3A874389B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01605B50-5E75-47A2-8EBE-D097B173DB1A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="3440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="3441">
   <si>
     <t>pluriel</t>
   </si>
@@ -10356,6 +10356,9 @@
   </si>
   <si>
     <t>le cours magistral</t>
+  </si>
+  <si>
+    <t>le temps</t>
   </si>
 </sst>
 </file>
@@ -10434,10 +10437,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10728,8 +10727,8 @@
   <dimension ref="A1:G984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A538" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D570" sqref="D570"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H287" sqref="H287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20882,7 +20881,7 @@
         <v>1939</v>
       </c>
       <c r="D599" t="s">
-        <v>3222</v>
+        <v>3440</v>
       </c>
       <c r="E599" t="s">
         <v>1940</v>
